--- a/Code/Results/Cases/Case_0_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.8752222316692125</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.8852420200607806</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8985176753808533</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.8439613631712775</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.024862994250553</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9019040632298047</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8985710990222492</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9115986441204097</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8581281675780169</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9031848704494332</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.8992073721363447</v>
+      </c>
+      <c r="D3">
+        <v>0.9080973802750775</v>
+      </c>
+      <c r="E3">
+        <v>0.9187713263569255</v>
+      </c>
+      <c r="F3">
+        <v>0.8728451012833055</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.029474747972595</v>
+      </c>
+      <c r="J3">
+        <v>0.9228814592301798</v>
+      </c>
+      <c r="K3">
+        <v>0.9200589193784973</v>
+      </c>
+      <c r="L3">
+        <v>0.9305610836510297</v>
+      </c>
+      <c r="M3">
+        <v>0.8854127905222615</v>
+      </c>
+      <c r="N3">
+        <v>0.9241920567582698</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9130310580118258</v>
+      </c>
+      <c r="D4">
+        <v>0.921282473494025</v>
+      </c>
+      <c r="E4">
+        <v>0.9304689032446565</v>
+      </c>
+      <c r="F4">
+        <v>0.8894321741009406</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.032106817006605</v>
+      </c>
+      <c r="J4">
+        <v>0.9349552763783341</v>
+      </c>
+      <c r="K4">
+        <v>0.9324339624626914</v>
+      </c>
+      <c r="L4">
+        <v>0.9414858663025499</v>
+      </c>
+      <c r="M4">
+        <v>0.9010777024112677</v>
+      </c>
+      <c r="N4">
+        <v>0.9362830201116602</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9185176180975471</v>
+      </c>
+      <c r="D5">
+        <v>0.9265178987663109</v>
+      </c>
+      <c r="E5">
+        <v>0.9351163394546599</v>
+      </c>
+      <c r="F5">
+        <v>0.8960062500548012</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.03314349451957</v>
+      </c>
+      <c r="J5">
+        <v>0.939743100489005</v>
+      </c>
+      <c r="K5">
+        <v>0.9373429343578618</v>
+      </c>
+      <c r="L5">
+        <v>0.9458203311351253</v>
+      </c>
+      <c r="M5">
+        <v>0.9072847513500315</v>
+      </c>
+      <c r="N5">
+        <v>0.9410776434817398</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9194216082458194</v>
+      </c>
+      <c r="D6">
+        <v>0.927380631541495</v>
+      </c>
+      <c r="E6">
+        <v>0.9358823231170517</v>
+      </c>
+      <c r="F6">
+        <v>0.8970889908651182</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.033313789349</v>
+      </c>
+      <c r="J6">
+        <v>0.940531708110801</v>
+      </c>
+      <c r="K6">
+        <v>0.9381515944610508</v>
+      </c>
+      <c r="L6">
+        <v>0.9465343937934515</v>
+      </c>
+      <c r="M6">
+        <v>0.9083069391262995</v>
+      </c>
+      <c r="N6">
+        <v>0.9418673710168134</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9131055607560236</v>
+      </c>
+      <c r="D7">
+        <v>0.921353557492092</v>
+      </c>
+      <c r="E7">
+        <v>0.9305319937420629</v>
+      </c>
+      <c r="F7">
+        <v>0.8895214761699777</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.032120928223451</v>
+      </c>
+      <c r="J7">
+        <v>0.9350203081598436</v>
+      </c>
+      <c r="K7">
+        <v>0.932500633040207</v>
+      </c>
+      <c r="L7">
+        <v>0.9415447313482751</v>
+      </c>
+      <c r="M7">
+        <v>0.9011620256232432</v>
+      </c>
+      <c r="N7">
+        <v>0.9363481442457589</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.8837395424796014</v>
+      </c>
+      <c r="D8">
+        <v>0.8933547862865436</v>
+      </c>
+      <c r="E8">
+        <v>0.9057035083096757</v>
+      </c>
+      <c r="F8">
+        <v>0.8542357890396921</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.026505077479322</v>
+      </c>
+      <c r="J8">
+        <v>0.9093567279541331</v>
+      </c>
+      <c r="K8">
+        <v>0.9062033673116127</v>
+      </c>
+      <c r="L8">
+        <v>0.9183328350468248</v>
+      </c>
+      <c r="M8">
+        <v>0.8678341027785484</v>
+      </c>
+      <c r="N8">
+        <v>0.9106481188125022</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.8119437861439464</v>
+      </c>
+      <c r="D9">
+        <v>0.8251041943675311</v>
+      </c>
+      <c r="E9">
+        <v>0.8453770033135481</v>
+      </c>
+      <c r="F9">
+        <v>0.7667261091151359</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.012688721182803</v>
+      </c>
+      <c r="J9">
+        <v>0.8464762892194818</v>
+      </c>
+      <c r="K9">
+        <v>0.8418564257818331</v>
+      </c>
+      <c r="L9">
+        <v>0.8616001710546221</v>
+      </c>
+      <c r="M9">
+        <v>0.7852201014950146</v>
+      </c>
+      <c r="N9">
+        <v>0.847678382642361</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D10">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E10">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F10">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J10">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K10">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L10">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M10">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N10">
+        <v>0.7492363054300116</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D11">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E11">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F11">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J11">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K11">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L11">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M11">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N11">
+        <v>0.7492363054300116</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D12">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E12">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F12">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J12">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K12">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L12">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M12">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N12">
+        <v>0.7492363054300116</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D13">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E13">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F13">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J13">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K13">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L13">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M13">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N13">
+        <v>0.7492363054300116</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D14">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E14">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F14">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J14">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K14">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L14">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M14">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N14">
+        <v>0.7492363054300116</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D15">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E15">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F15">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J15">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K15">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L15">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M15">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N15">
+        <v>0.7492363054300116</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D16">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E16">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F16">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J16">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K16">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L16">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M16">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N16">
+        <v>0.7492363054300116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D17">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E17">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F17">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J17">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K17">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L17">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M17">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N17">
+        <v>0.7492363054300116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D18">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E18">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F18">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J18">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K18">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L18">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M18">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N18">
+        <v>0.7492363054300116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D19">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E19">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F19">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J19">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K19">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L19">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M19">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N19">
+        <v>0.7492363054300116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D20">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E20">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F20">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J20">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K20">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L20">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M20">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N20">
+        <v>0.7492363054300116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D21">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E21">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F21">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J21">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K21">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L21">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M21">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N21">
+        <v>0.7492363054300116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D22">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E22">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F22">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J22">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K22">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L22">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M22">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N22">
+        <v>0.7492363054300116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D23">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E23">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F23">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J23">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K23">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L23">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M23">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N23">
+        <v>0.7492363054300116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D24">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E24">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F24">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J24">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K24">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L24">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M24">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N24">
+        <v>0.7492363054300116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.6995822419655342</v>
+      </c>
+      <c r="D25">
+        <v>0.7190895959900326</v>
+      </c>
+      <c r="E25">
+        <v>0.7523620401731539</v>
+      </c>
+      <c r="F25">
+        <v>0.6209400195030179</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0.9924424106685635</v>
+      </c>
+      <c r="J25">
+        <v>0.7481738127991012</v>
+      </c>
+      <c r="K25">
+        <v>0.741430731374225</v>
+      </c>
+      <c r="L25">
+        <v>0.7733164744246339</v>
+      </c>
+      <c r="M25">
+        <v>0.6486902033553879</v>
+      </c>
+      <c r="N25">
+        <v>0.7492363054300116</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8752222316692125</v>
+        <v>0.9455427820219588</v>
       </c>
       <c r="D2">
-        <v>0.8852420200607806</v>
+        <v>0.9579261895454437</v>
       </c>
       <c r="E2">
-        <v>0.8985176753808533</v>
+        <v>0.9596186433822136</v>
       </c>
       <c r="F2">
-        <v>0.8439613631712775</v>
+        <v>0.8487816928143915</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.024862994250553</v>
+        <v>1.019097450631961</v>
       </c>
       <c r="J2">
-        <v>0.9019040632298047</v>
+        <v>0.9694839400546907</v>
       </c>
       <c r="K2">
-        <v>0.8985710990222492</v>
+        <v>0.9700045583726001</v>
       </c>
       <c r="L2">
-        <v>0.9115986441204097</v>
+        <v>0.9716707730788217</v>
       </c>
       <c r="M2">
-        <v>0.8581281675780169</v>
+        <v>0.8628451083957126</v>
       </c>
       <c r="N2">
-        <v>0.9031848704494332</v>
+        <v>0.9942178209677273</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8992073721363447</v>
+        <v>0.9551716680901383</v>
       </c>
       <c r="D3">
-        <v>0.9080973802750775</v>
+        <v>0.9662144465490038</v>
       </c>
       <c r="E3">
-        <v>0.9187713263569255</v>
+        <v>0.9675521929740237</v>
       </c>
       <c r="F3">
-        <v>0.8728451012833055</v>
+        <v>0.8823788780912574</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029474747972595</v>
+        <v>1.025914457589231</v>
       </c>
       <c r="J3">
-        <v>0.9228814592301798</v>
+        <v>0.9769637571417402</v>
       </c>
       <c r="K3">
-        <v>0.9200589193784973</v>
+        <v>0.9772986849304506</v>
       </c>
       <c r="L3">
-        <v>0.9305610836510297</v>
+        <v>0.9786178038414475</v>
       </c>
       <c r="M3">
-        <v>0.8854127905222615</v>
+        <v>0.8947764442618675</v>
       </c>
       <c r="N3">
-        <v>0.9241920567582698</v>
+        <v>0.9966737441836254</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9130310580118258</v>
+        <v>0.9607138613556169</v>
       </c>
       <c r="D4">
-        <v>0.921282473494025</v>
+        <v>0.9709670788365198</v>
       </c>
       <c r="E4">
-        <v>0.9304689032446565</v>
+        <v>0.9721121432577839</v>
       </c>
       <c r="F4">
-        <v>0.8894321741009406</v>
+        <v>0.9003222280635798</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032106817006605</v>
+        <v>1.029531079929699</v>
       </c>
       <c r="J4">
-        <v>0.9349552763783341</v>
+        <v>0.9811788468321374</v>
       </c>
       <c r="K4">
-        <v>0.9324339624626914</v>
+        <v>0.9814290129783064</v>
       </c>
       <c r="L4">
-        <v>0.9414858663025499</v>
+        <v>0.9825592259617355</v>
       </c>
       <c r="M4">
-        <v>0.9010777024112677</v>
+        <v>0.9117938056899039</v>
       </c>
       <c r="N4">
-        <v>0.9362830201116602</v>
+        <v>0.9980581033565685</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9185176180975471</v>
+        <v>0.9629223508674833</v>
       </c>
       <c r="D5">
-        <v>0.9265178987663109</v>
+        <v>0.9728580716140002</v>
       </c>
       <c r="E5">
-        <v>0.9351163394546599</v>
+        <v>0.9739285243856063</v>
       </c>
       <c r="F5">
-        <v>0.8960062500548012</v>
+        <v>0.9072192417198357</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03314349451957</v>
+        <v>1.030913003930385</v>
       </c>
       <c r="J5">
-        <v>0.939743100489005</v>
+        <v>0.9828417671566599</v>
       </c>
       <c r="K5">
-        <v>0.9373429343578618</v>
+        <v>0.9830623594181138</v>
       </c>
       <c r="L5">
-        <v>0.9458203311351253</v>
+        <v>0.9841193440436852</v>
       </c>
       <c r="M5">
-        <v>0.9072847513500315</v>
+        <v>0.9183265827431512</v>
       </c>
       <c r="N5">
-        <v>0.9410776434817398</v>
+        <v>0.9986043158088581</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9194216082458194</v>
+        <v>0.9632868911687003</v>
       </c>
       <c r="D6">
-        <v>0.927380631541495</v>
+        <v>0.9731700646436631</v>
       </c>
       <c r="E6">
-        <v>0.9358823231170517</v>
+        <v>0.9742283175000087</v>
       </c>
       <c r="F6">
-        <v>0.8970889908651182</v>
+        <v>0.9083444320882645</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033313789349</v>
+        <v>1.031137914473815</v>
       </c>
       <c r="J6">
-        <v>0.940531708110801</v>
+        <v>0.9831153679364774</v>
       </c>
       <c r="K6">
-        <v>0.9381515944610508</v>
+        <v>0.9833313035319422</v>
       </c>
       <c r="L6">
-        <v>0.9465343937934515</v>
+        <v>0.9843763099758475</v>
       </c>
       <c r="M6">
-        <v>0.9083069391262995</v>
+        <v>0.9193918678793467</v>
       </c>
       <c r="N6">
-        <v>0.9418673710168134</v>
+        <v>0.9986941872569274</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9131055607560236</v>
+        <v>0.9607438081830514</v>
       </c>
       <c r="D7">
-        <v>0.921353557492092</v>
+        <v>0.970992730554595</v>
       </c>
       <c r="E7">
-        <v>0.9305319937420629</v>
+        <v>0.97213677514075</v>
       </c>
       <c r="F7">
-        <v>0.8895214761699777</v>
+        <v>0.900416684974303</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032120928223451</v>
+        <v>1.029550041759259</v>
       </c>
       <c r="J7">
-        <v>0.9350203081598436</v>
+        <v>0.9812014580595548</v>
       </c>
       <c r="K7">
-        <v>0.932500633040207</v>
+        <v>0.9814512074420395</v>
       </c>
       <c r="L7">
-        <v>0.9415447313482751</v>
+        <v>0.9825804198077676</v>
       </c>
       <c r="M7">
-        <v>0.9011620256232432</v>
+        <v>0.9118833075919366</v>
       </c>
       <c r="N7">
-        <v>0.9363481442457589</v>
+        <v>0.9980655301577254</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8837395424796014</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D8">
-        <v>0.8933547862865436</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E8">
-        <v>0.9057035083096757</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F8">
-        <v>0.8542357890396921</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026505077479322</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J8">
-        <v>0.9093567279541331</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K8">
-        <v>0.9062033673116127</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L8">
-        <v>0.9183328350468248</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M8">
-        <v>0.8678341027785484</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N8">
-        <v>0.9106481188125022</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8119437861439464</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D9">
-        <v>0.8251041943675311</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E9">
-        <v>0.8453770033135481</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F9">
-        <v>0.7667261091151359</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.012688721182803</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J9">
-        <v>0.8464762892194818</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K9">
-        <v>0.8418564257818331</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L9">
-        <v>0.8616001710546221</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M9">
-        <v>0.7852201014950146</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N9">
-        <v>0.847678382642361</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D10">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E10">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F10">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J10">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K10">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L10">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M10">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N10">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D11">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E11">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F11">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J11">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K11">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L11">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M11">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N11">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D12">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E12">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F12">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J12">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K12">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L12">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M12">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N12">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D13">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E13">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F13">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J13">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K13">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L13">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M13">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N13">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D14">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E14">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F14">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J14">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K14">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L14">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M14">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N14">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D15">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E15">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F15">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J15">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K15">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L15">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M15">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N15">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D16">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E16">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F16">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J16">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K16">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L16">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M16">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N16">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D17">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E17">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F17">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J17">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K17">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L17">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M17">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N17">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D18">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E18">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F18">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J18">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K18">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L18">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M18">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N18">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D19">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E19">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F19">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J19">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K19">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L19">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M19">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N19">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D20">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E20">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F20">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J20">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K20">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L20">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M20">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N20">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D21">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E21">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F21">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J21">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K21">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L21">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M21">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N21">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D22">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E22">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F22">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J22">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K22">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L22">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M22">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N22">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D23">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E23">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F23">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J23">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K23">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L23">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M23">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N23">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D24">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E24">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F24">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J24">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K24">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L24">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M24">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N24">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.6995822419655342</v>
+        <v>0.9489755334319394</v>
       </c>
       <c r="D25">
-        <v>0.7190895959900326</v>
+        <v>0.9608862820896239</v>
       </c>
       <c r="E25">
-        <v>0.7523620401731539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F25">
-        <v>0.6209400195030179</v>
+        <v>0.8611427128228548</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9924424106685635</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J25">
-        <v>0.7481738127991012</v>
+        <v>0.9721749950445382</v>
       </c>
       <c r="K25">
-        <v>0.741430731374225</v>
+        <v>0.9726235006481129</v>
       </c>
       <c r="L25">
-        <v>0.7733164744246339</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M25">
-        <v>0.6486902033553879</v>
+        <v>0.8746021422960604</v>
       </c>
       <c r="N25">
-        <v>0.7492363054300116</v>
+        <v>0.9951012904809178</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9455427820219588</v>
+        <v>1.008688450532821</v>
       </c>
       <c r="D2">
-        <v>0.9579261895454437</v>
+        <v>1.011347374404128</v>
       </c>
       <c r="E2">
-        <v>0.9596186433822136</v>
+        <v>1.011229710712755</v>
       </c>
       <c r="F2">
-        <v>0.8487816928143915</v>
+        <v>1.01232709078867</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.019097450631961</v>
+        <v>1.022830103444465</v>
       </c>
       <c r="J2">
-        <v>0.9694839400546907</v>
+        <v>1.013952826990632</v>
       </c>
       <c r="K2">
-        <v>0.9700045583726001</v>
+        <v>1.014214819854</v>
       </c>
       <c r="L2">
-        <v>0.9716707730788217</v>
+        <v>1.014097511185495</v>
       </c>
       <c r="M2">
-        <v>0.8628451083957126</v>
+        <v>1.015191583664154</v>
       </c>
       <c r="N2">
-        <v>0.9942178209677273</v>
+        <v>1.008830506242373</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9551716680901383</v>
+        <v>1.009948203634625</v>
       </c>
       <c r="D3">
-        <v>0.9662144465490038</v>
+        <v>1.012449680323405</v>
       </c>
       <c r="E3">
-        <v>0.9675521929740237</v>
+        <v>1.012302981766324</v>
       </c>
       <c r="F3">
-        <v>0.8823788780912574</v>
+        <v>1.014899176263818</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025914457589231</v>
+        <v>1.023104481063391</v>
       </c>
       <c r="J3">
-        <v>0.9769637571417402</v>
+        <v>1.014842956478751</v>
       </c>
       <c r="K3">
-        <v>0.9772986849304506</v>
+        <v>1.015120565814835</v>
       </c>
       <c r="L3">
-        <v>0.9786178038414475</v>
+        <v>1.014974277492985</v>
       </c>
       <c r="M3">
-        <v>0.8947764442618675</v>
+        <v>1.017563230859071</v>
       </c>
       <c r="N3">
-        <v>0.9966737441836254</v>
+        <v>1.009122870040444</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9607138613556169</v>
+        <v>1.01075578689404</v>
       </c>
       <c r="D4">
-        <v>0.9709670788365198</v>
+        <v>1.013156291742462</v>
       </c>
       <c r="E4">
-        <v>0.9721121432577839</v>
+        <v>1.012991344094922</v>
       </c>
       <c r="F4">
-        <v>0.9003222280635798</v>
+        <v>1.01651518665792</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029531079929699</v>
+        <v>1.023268875536985</v>
       </c>
       <c r="J4">
-        <v>0.9811788468321374</v>
+        <v>1.015410997224989</v>
       </c>
       <c r="K4">
-        <v>0.9814290129783064</v>
+        <v>1.015699432483559</v>
       </c>
       <c r="L4">
-        <v>0.9825592259617355</v>
+        <v>1.015534922614298</v>
       </c>
       <c r="M4">
-        <v>0.9117938056899039</v>
+        <v>1.01904944613505</v>
       </c>
       <c r="N4">
-        <v>0.9980581033565685</v>
+        <v>1.009309434557271</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9629223508674833</v>
+        <v>1.011093513686318</v>
       </c>
       <c r="D5">
-        <v>0.9728580716140002</v>
+        <v>1.013451783703671</v>
       </c>
       <c r="E5">
-        <v>0.9739285243856063</v>
+        <v>1.013279291445182</v>
       </c>
       <c r="F5">
-        <v>0.9072192417198357</v>
+        <v>1.017183157210875</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030913003930385</v>
+        <v>1.023334863415529</v>
       </c>
       <c r="J5">
-        <v>0.9828417671566599</v>
+        <v>1.015647928555391</v>
       </c>
       <c r="K5">
-        <v>0.9830623594181138</v>
+        <v>1.015941086237034</v>
       </c>
       <c r="L5">
-        <v>0.9841193440436852</v>
+        <v>1.015769041472887</v>
       </c>
       <c r="M5">
-        <v>0.9183265827431512</v>
+        <v>1.019662819575479</v>
       </c>
       <c r="N5">
-        <v>0.9986043158088581</v>
+        <v>1.009387248959039</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9632868911687003</v>
+        <v>1.011150115856857</v>
       </c>
       <c r="D6">
-        <v>0.9731700646436631</v>
+        <v>1.013501306897168</v>
       </c>
       <c r="E6">
-        <v>0.9742283175000087</v>
+        <v>1.013327555286461</v>
       </c>
       <c r="F6">
-        <v>0.9083444320882645</v>
+        <v>1.017294648422417</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031137914473815</v>
+        <v>1.023345760548856</v>
       </c>
       <c r="J6">
-        <v>0.9831153679364774</v>
+        <v>1.015687601258604</v>
       </c>
       <c r="K6">
-        <v>0.9833313035319422</v>
+        <v>1.015981561856658</v>
       </c>
       <c r="L6">
-        <v>0.9843763099758475</v>
+        <v>1.015808259265182</v>
       </c>
       <c r="M6">
-        <v>0.9193918678793467</v>
+        <v>1.019765141637691</v>
       </c>
       <c r="N6">
-        <v>0.9986941872569274</v>
+        <v>1.009400278377643</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9607438081830514</v>
+        <v>1.010760306577285</v>
       </c>
       <c r="D7">
-        <v>0.970992730554595</v>
+        <v>1.013160246246495</v>
       </c>
       <c r="E7">
-        <v>0.97213677514075</v>
+        <v>1.012995197289315</v>
       </c>
       <c r="F7">
-        <v>0.900416684974303</v>
+        <v>1.016524156698481</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029550041759259</v>
+        <v>1.023269769513482</v>
       </c>
       <c r="J7">
-        <v>0.9812014580595548</v>
+        <v>1.015414170438911</v>
       </c>
       <c r="K7">
-        <v>0.9814512074420395</v>
+        <v>1.015702668127805</v>
       </c>
       <c r="L7">
-        <v>0.9825804198077676</v>
+        <v>1.015538057085926</v>
       </c>
       <c r="M7">
-        <v>0.9118833075919366</v>
+        <v>1.019057686779217</v>
       </c>
       <c r="N7">
-        <v>0.9980655301577254</v>
+        <v>1.009310476731673</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9489755334319394</v>
+        <v>1.00911577363819</v>
       </c>
       <c r="D8">
-        <v>0.9608862820896239</v>
+        <v>1.011721297590554</v>
       </c>
       <c r="E8">
-        <v>0.9624492034189887</v>
+        <v>1.01159370895715</v>
       </c>
       <c r="F8">
-        <v>0.8611427128228548</v>
+        <v>1.013206441962646</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.021609057375237</v>
+        <v>1.022925567630325</v>
       </c>
       <c r="J8">
-        <v>0.9721749950445382</v>
+        <v>1.01425530918712</v>
       </c>
       <c r="K8">
-        <v>0.9726235006481129</v>
+        <v>1.014522429533401</v>
       </c>
       <c r="L8">
-        <v>0.9741630505801228</v>
+        <v>1.014395216334709</v>
       </c>
       <c r="M8">
-        <v>0.8746021422960604</v>
+        <v>1.016003211375736</v>
       </c>
       <c r="N8">
-        <v>0.9951012904809178</v>
+        <v>1.008929858640762</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9489755334319394</v>
+        <v>1.00615858568265</v>
       </c>
       <c r="D9">
-        <v>0.9608862820896239</v>
+        <v>1.009133483155734</v>
       </c>
       <c r="E9">
-        <v>0.9624492034189887</v>
+        <v>1.009076105162491</v>
       </c>
       <c r="F9">
-        <v>0.8611427128228548</v>
+        <v>1.006982351546846</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021609057375237</v>
+        <v>1.022217169405401</v>
       </c>
       <c r="J9">
-        <v>0.9721749950445382</v>
+        <v>1.012151225669846</v>
       </c>
       <c r="K9">
-        <v>0.9726235006481129</v>
+        <v>1.012386268034593</v>
       </c>
       <c r="L9">
-        <v>0.9741630505801228</v>
+        <v>1.012329088347824</v>
       </c>
       <c r="M9">
-        <v>0.8746021422960604</v>
+        <v>1.010242588057758</v>
       </c>
       <c r="N9">
-        <v>0.9951012904809178</v>
+        <v>1.008238720883246</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9489755334319394</v>
+        <v>1.004145138349328</v>
       </c>
       <c r="D10">
-        <v>0.9608862820896239</v>
+        <v>1.007371301044737</v>
       </c>
       <c r="E10">
-        <v>0.9624492034189887</v>
+        <v>1.007363671239686</v>
       </c>
       <c r="F10">
-        <v>0.8611427128228548</v>
+        <v>1.002566916081195</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021609057375237</v>
+        <v>1.02167456551055</v>
       </c>
       <c r="J10">
-        <v>0.9721749950445382</v>
+        <v>1.010704881919846</v>
       </c>
       <c r="K10">
-        <v>0.9726235006481129</v>
+        <v>1.010922404985722</v>
       </c>
       <c r="L10">
-        <v>0.9741630505801228</v>
+        <v>1.01091480418429</v>
       </c>
       <c r="M10">
-        <v>0.8746021422960604</v>
+        <v>1.006136380127135</v>
       </c>
       <c r="N10">
-        <v>0.9951012904809178</v>
+        <v>1.007763588448497</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9489755334319394</v>
+        <v>1.003262818469038</v>
       </c>
       <c r="D11">
-        <v>0.9608862820896239</v>
+        <v>1.006599028032638</v>
       </c>
       <c r="E11">
-        <v>0.9624492034189887</v>
+        <v>1.006613665948987</v>
       </c>
       <c r="F11">
-        <v>0.8611427128228548</v>
+        <v>1.00058893835483</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021609057375237</v>
+        <v>1.021422462053551</v>
       </c>
       <c r="J11">
-        <v>0.9721749950445382</v>
+        <v>1.01006778061674</v>
       </c>
       <c r="K11">
-        <v>0.9726235006481129</v>
+        <v>1.0102786611112</v>
       </c>
       <c r="L11">
-        <v>0.9741630505801228</v>
+        <v>1.010293241184894</v>
       </c>
       <c r="M11">
-        <v>0.8746021422960604</v>
+        <v>1.004292479803728</v>
       </c>
       <c r="N11">
-        <v>0.9951012904809178</v>
+        <v>1.007554286559971</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9489755334319394</v>
+        <v>1.002933462900034</v>
       </c>
       <c r="D12">
-        <v>0.9608862820896239</v>
+        <v>1.006310741291837</v>
       </c>
       <c r="E12">
-        <v>0.9624492034189887</v>
+        <v>1.006333762215631</v>
       </c>
       <c r="F12">
-        <v>0.8611427128228548</v>
+        <v>0.9998440314039331</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021609057375237</v>
+        <v>1.021326198589508</v>
       </c>
       <c r="J12">
-        <v>0.9721749950445382</v>
+        <v>1.009829462773604</v>
       </c>
       <c r="K12">
-        <v>0.9726235006481129</v>
+        <v>1.010038020133945</v>
       </c>
       <c r="L12">
-        <v>0.9741630505801228</v>
+        <v>1.010060948802073</v>
       </c>
       <c r="M12">
-        <v>0.8746021422960604</v>
+        <v>1.003597412787125</v>
       </c>
       <c r="N12">
-        <v>0.9951012904809178</v>
+        <v>1.007475992353871</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9489755334319394</v>
+        <v>1.003004185015604</v>
       </c>
       <c r="D13">
-        <v>0.9608862820896239</v>
+        <v>1.006372645207232</v>
       </c>
       <c r="E13">
-        <v>0.9624492034189887</v>
+        <v>1.00639386284455</v>
       </c>
       <c r="F13">
-        <v>0.8611427128228548</v>
+        <v>1.000004282531593</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021609057375237</v>
+        <v>1.021346966781681</v>
       </c>
       <c r="J13">
-        <v>0.9721749950445382</v>
+        <v>1.009880659068163</v>
       </c>
       <c r="K13">
-        <v>0.9726235006481129</v>
+        <v>1.010089708180945</v>
       </c>
       <c r="L13">
-        <v>0.9741630505801228</v>
+        <v>1.010110841043771</v>
       </c>
       <c r="M13">
-        <v>0.8746021422960604</v>
+        <v>1.003746971202148</v>
       </c>
       <c r="N13">
-        <v>0.9951012904809178</v>
+        <v>1.007492811864144</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9489755334319394</v>
+        <v>1.00323562722319</v>
       </c>
       <c r="D14">
-        <v>0.9608862820896239</v>
+        <v>1.006575227591048</v>
       </c>
       <c r="E14">
-        <v>0.9624492034189887</v>
+        <v>1.006590556153115</v>
       </c>
       <c r="F14">
-        <v>0.8611427128228548</v>
+        <v>1.000527573789866</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021609057375237</v>
+        <v>1.021414558620614</v>
       </c>
       <c r="J14">
-        <v>0.9721749950445382</v>
+        <v>1.010048115521325</v>
       </c>
       <c r="K14">
-        <v>0.9726235006481129</v>
+        <v>1.010258801027929</v>
       </c>
       <c r="L14">
-        <v>0.9741630505801228</v>
+        <v>1.010274068947409</v>
       </c>
       <c r="M14">
-        <v>0.8746021422960604</v>
+        <v>1.004235234193015</v>
       </c>
       <c r="N14">
-        <v>0.9951012904809178</v>
+        <v>1.007547826046079</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9489755334319394</v>
+        <v>1.00337800990943</v>
       </c>
       <c r="D15">
-        <v>0.9608862820896239</v>
+        <v>1.006699854455835</v>
       </c>
       <c r="E15">
-        <v>0.9624492034189887</v>
+        <v>1.006711569458924</v>
       </c>
       <c r="F15">
-        <v>0.8611427128228548</v>
+        <v>1.000848631014647</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021609057375237</v>
+        <v>1.02145585549641</v>
       </c>
       <c r="J15">
-        <v>0.9721749950445382</v>
+        <v>1.010151068312811</v>
       </c>
       <c r="K15">
-        <v>0.9726235006481129</v>
+        <v>1.010362781242423</v>
       </c>
       <c r="L15">
-        <v>0.9741630505801228</v>
+        <v>1.010374450182244</v>
       </c>
       <c r="M15">
-        <v>0.8746021422960604</v>
+        <v>1.004534714655489</v>
       </c>
       <c r="N15">
-        <v>0.9951012904809178</v>
+        <v>1.007581648751371</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9489755334319394</v>
+        <v>1.0042034701378</v>
       </c>
       <c r="D16">
-        <v>0.9608862820896239</v>
+        <v>1.007422356096577</v>
       </c>
       <c r="E16">
-        <v>0.9624492034189887</v>
+        <v>1.007413263983092</v>
       </c>
       <c r="F16">
-        <v>0.8611427128228548</v>
+        <v>1.002696773201763</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021609057375237</v>
+        <v>1.021690931723832</v>
       </c>
       <c r="J16">
-        <v>0.9721749950445382</v>
+        <v>1.010746932500902</v>
       </c>
       <c r="K16">
-        <v>0.9726235006481129</v>
+        <v>1.010964916496052</v>
       </c>
       <c r="L16">
-        <v>0.9741630505801228</v>
+        <v>1.01095585885445</v>
       </c>
       <c r="M16">
-        <v>0.8746021422960604</v>
+        <v>1.006257343655341</v>
       </c>
       <c r="N16">
-        <v>0.9951012904809178</v>
+        <v>1.007777402782195</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9489755334319394</v>
+        <v>1.004718420055279</v>
       </c>
       <c r="D17">
-        <v>0.9608862820896239</v>
+        <v>1.007873060300089</v>
       </c>
       <c r="E17">
-        <v>0.9624492034189887</v>
+        <v>1.007851112730732</v>
       </c>
       <c r="F17">
-        <v>0.8611427128228548</v>
+        <v>1.003838189946289</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021609057375237</v>
+        <v>1.021833766633006</v>
       </c>
       <c r="J17">
-        <v>0.9721749950445382</v>
+        <v>1.011117774275572</v>
       </c>
       <c r="K17">
-        <v>0.9726235006481129</v>
+        <v>1.01133994621156</v>
       </c>
       <c r="L17">
-        <v>0.9741630505801228</v>
+        <v>1.011318079923213</v>
       </c>
       <c r="M17">
-        <v>0.8746021422960604</v>
+        <v>1.007320084782005</v>
       </c>
       <c r="N17">
-        <v>0.9951012904809178</v>
+        <v>1.007899229453754</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9489755334319394</v>
+        <v>1.005017773465819</v>
       </c>
       <c r="D18">
-        <v>0.9608862820896239</v>
+        <v>1.008135060266073</v>
       </c>
       <c r="E18">
-        <v>0.9624492034189887</v>
+        <v>1.008105684228284</v>
       </c>
       <c r="F18">
-        <v>0.8611427128228548</v>
+        <v>1.004497604098853</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021609057375237</v>
+        <v>1.021915428028849</v>
       </c>
       <c r="J18">
-        <v>0.9721749950445382</v>
+        <v>1.011333038674078</v>
       </c>
       <c r="K18">
-        <v>0.9726235006481129</v>
+        <v>1.0115577442124</v>
       </c>
       <c r="L18">
-        <v>0.9741630505801228</v>
+        <v>1.011528475460757</v>
       </c>
       <c r="M18">
-        <v>0.8746021422960604</v>
+        <v>1.00793362539117</v>
       </c>
       <c r="N18">
-        <v>0.9951012904809178</v>
+        <v>1.00796994580482</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9489755334319394</v>
+        <v>1.005119675635105</v>
       </c>
       <c r="D19">
-        <v>0.9608862820896239</v>
+        <v>1.008224246077959</v>
       </c>
       <c r="E19">
-        <v>0.9624492034189887</v>
+        <v>1.00819234890344</v>
       </c>
       <c r="F19">
-        <v>0.8611427128228548</v>
+        <v>1.004721377347333</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021609057375237</v>
+        <v>1.021942993562885</v>
       </c>
       <c r="J19">
-        <v>0.9721749950445382</v>
+        <v>1.01140626292194</v>
       </c>
       <c r="K19">
-        <v>0.9726235006481129</v>
+        <v>1.011631847690218</v>
       </c>
       <c r="L19">
-        <v>0.9741630505801228</v>
+        <v>1.011600066452402</v>
       </c>
       <c r="M19">
-        <v>0.8746021422960604</v>
+        <v>1.008141759450388</v>
       </c>
       <c r="N19">
-        <v>0.9951012904809178</v>
+        <v>1.007994000479776</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9489755334319394</v>
+        <v>1.004663275416191</v>
       </c>
       <c r="D20">
-        <v>0.9608862820896239</v>
+        <v>1.007824796170408</v>
       </c>
       <c r="E20">
-        <v>0.9624492034189887</v>
+        <v>1.007804220620989</v>
       </c>
       <c r="F20">
-        <v>0.8611427128228548</v>
+        <v>1.003716385962054</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021609057375237</v>
+        <v>1.02181861295899</v>
       </c>
       <c r="J20">
-        <v>0.9721749950445382</v>
+        <v>1.01107809447978</v>
       </c>
       <c r="K20">
-        <v>0.9726235006481129</v>
+        <v>1.011299807675259</v>
       </c>
       <c r="L20">
-        <v>0.9741630505801228</v>
+        <v>1.011279308519776</v>
       </c>
       <c r="M20">
-        <v>0.8746021422960604</v>
+        <v>1.007206720153434</v>
       </c>
       <c r="N20">
-        <v>0.9951012904809178</v>
+        <v>1.007886194192515</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9489755334319394</v>
+        <v>1.003167518453291</v>
       </c>
       <c r="D21">
-        <v>0.9608862820896239</v>
+        <v>1.006515611962968</v>
       </c>
       <c r="E21">
-        <v>0.9624492034189887</v>
+        <v>1.006532671602976</v>
       </c>
       <c r="F21">
-        <v>0.8611427128228548</v>
+        <v>1.000373761351914</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021609057375237</v>
+        <v>1.021394727233023</v>
       </c>
       <c r="J21">
-        <v>0.9721749950445382</v>
+        <v>1.009998850237339</v>
       </c>
       <c r="K21">
-        <v>0.9726235006481129</v>
+        <v>1.010209049864958</v>
       </c>
       <c r="L21">
-        <v>0.9741630505801228</v>
+        <v>1.010226041816593</v>
       </c>
       <c r="M21">
-        <v>0.8746021422960604</v>
+        <v>1.004091735580907</v>
       </c>
       <c r="N21">
-        <v>0.9951012904809178</v>
+        <v>1.007531641048096</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9489755334319394</v>
+        <v>1.002217662525463</v>
       </c>
       <c r="D22">
-        <v>0.9608862820896239</v>
+        <v>1.005684178328557</v>
       </c>
       <c r="E22">
-        <v>0.9624492034189887</v>
+        <v>1.005725548895555</v>
       </c>
       <c r="F22">
-        <v>0.8611427128228548</v>
+        <v>0.9982129698157299</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021609057375237</v>
+        <v>1.021113024687192</v>
       </c>
       <c r="J22">
-        <v>0.9721749950445382</v>
+        <v>1.009310600313289</v>
       </c>
       <c r="K22">
-        <v>0.9726235006481129</v>
+        <v>1.009514396634615</v>
       </c>
       <c r="L22">
-        <v>0.9741630505801228</v>
+        <v>1.009555596396005</v>
       </c>
       <c r="M22">
-        <v>0.8746021422960604</v>
+        <v>1.002074293599932</v>
       </c>
       <c r="N22">
-        <v>0.9951012904809178</v>
+        <v>1.007305528508514</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9489755334319394</v>
+        <v>1.002722108181929</v>
       </c>
       <c r="D23">
-        <v>0.9608862820896239</v>
+        <v>1.006125738468164</v>
       </c>
       <c r="E23">
-        <v>0.9624492034189887</v>
+        <v>1.006154158981539</v>
       </c>
       <c r="F23">
-        <v>0.8611427128228548</v>
+        <v>0.9993641489682491</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021609057375237</v>
+        <v>1.021263815888672</v>
       </c>
       <c r="J23">
-        <v>0.9721749950445382</v>
+        <v>1.009676388144357</v>
       </c>
       <c r="K23">
-        <v>0.9726235006481129</v>
+        <v>1.009883498886546</v>
       </c>
       <c r="L23">
-        <v>0.9741630505801228</v>
+        <v>1.009911804487238</v>
       </c>
       <c r="M23">
-        <v>0.8746021422960604</v>
+        <v>1.003149455621163</v>
       </c>
       <c r="N23">
-        <v>0.9951012904809178</v>
+        <v>1.007425702552166</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9489755334319394</v>
+        <v>1.004688196017542</v>
       </c>
       <c r="D24">
-        <v>0.9608862820896239</v>
+        <v>1.007846607395211</v>
       </c>
       <c r="E24">
-        <v>0.9624492034189887</v>
+        <v>1.007825411673208</v>
       </c>
       <c r="F24">
-        <v>0.8611427128228548</v>
+        <v>1.003771443558863</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021609057375237</v>
+        <v>1.021825465353333</v>
       </c>
       <c r="J24">
-        <v>0.9721749950445382</v>
+        <v>1.011096027286714</v>
       </c>
       <c r="K24">
-        <v>0.9726235006481129</v>
+        <v>1.011317947486734</v>
       </c>
       <c r="L24">
-        <v>0.9741630505801228</v>
+        <v>1.011296830370928</v>
       </c>
       <c r="M24">
-        <v>0.8746021422960604</v>
+        <v>1.007257964318045</v>
       </c>
       <c r="N24">
-        <v>0.9951012904809178</v>
+        <v>1.007892085325282</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9489755334319394</v>
+        <v>1.006930326465401</v>
       </c>
       <c r="D25">
-        <v>0.9608862820896239</v>
+        <v>1.00980886605852</v>
       </c>
       <c r="E25">
-        <v>0.9624492034189887</v>
+        <v>1.009732827631846</v>
       </c>
       <c r="F25">
-        <v>0.8611427128228548</v>
+        <v>1.008637385319004</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021609057375237</v>
+        <v>1.022412558836226</v>
       </c>
       <c r="J25">
-        <v>0.9721749950445382</v>
+        <v>1.012702720556014</v>
       </c>
       <c r="K25">
-        <v>0.9726235006481129</v>
+        <v>1.012945382798696</v>
       </c>
       <c r="L25">
-        <v>0.9741630505801228</v>
+        <v>1.012869597039</v>
       </c>
       <c r="M25">
-        <v>0.8746021422960604</v>
+        <v>1.011777799395359</v>
       </c>
       <c r="N25">
-        <v>0.9951012904809178</v>
+        <v>1.008419880898031</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008688450532821</v>
+        <v>0.9455427820219591</v>
       </c>
       <c r="D2">
-        <v>1.011347374404128</v>
+        <v>0.9579261895454438</v>
       </c>
       <c r="E2">
-        <v>1.011229710712755</v>
+        <v>0.9596186433822135</v>
       </c>
       <c r="F2">
-        <v>1.01232709078867</v>
+        <v>0.8487816928143918</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.022830103444465</v>
+        <v>1.019097450631961</v>
       </c>
       <c r="J2">
-        <v>1.013952826990632</v>
+        <v>0.969483940054691</v>
       </c>
       <c r="K2">
-        <v>1.014214819854</v>
+        <v>0.9700045583726002</v>
       </c>
       <c r="L2">
-        <v>1.014097511185495</v>
+        <v>0.9716707730788217</v>
       </c>
       <c r="M2">
-        <v>1.015191583664154</v>
+        <v>0.8628451083957129</v>
       </c>
       <c r="N2">
-        <v>1.008830506242373</v>
+        <v>0.9942178209677274</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009948203634625</v>
+        <v>0.9551716680901385</v>
       </c>
       <c r="D3">
-        <v>1.012449680323405</v>
+        <v>0.966214446549004</v>
       </c>
       <c r="E3">
-        <v>1.012302981766324</v>
+        <v>0.9675521929740237</v>
       </c>
       <c r="F3">
-        <v>1.014899176263818</v>
+        <v>0.8823788780912577</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023104481063391</v>
+        <v>1.025914457589231</v>
       </c>
       <c r="J3">
-        <v>1.014842956478751</v>
+        <v>0.9769637571417404</v>
       </c>
       <c r="K3">
-        <v>1.015120565814835</v>
+        <v>0.9772986849304508</v>
       </c>
       <c r="L3">
-        <v>1.014974277492985</v>
+        <v>0.9786178038414475</v>
       </c>
       <c r="M3">
-        <v>1.017563230859071</v>
+        <v>0.8947764442618679</v>
       </c>
       <c r="N3">
-        <v>1.009122870040444</v>
+        <v>0.9966737441836253</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01075578689404</v>
+        <v>0.9607138613556164</v>
       </c>
       <c r="D4">
-        <v>1.013156291742462</v>
+        <v>0.9709670788365197</v>
       </c>
       <c r="E4">
-        <v>1.012991344094922</v>
+        <v>0.9721121432577836</v>
       </c>
       <c r="F4">
-        <v>1.01651518665792</v>
+        <v>0.9003222280635791</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023268875536985</v>
+        <v>1.029531079929699</v>
       </c>
       <c r="J4">
-        <v>1.015410997224989</v>
+        <v>0.9811788468321371</v>
       </c>
       <c r="K4">
-        <v>1.015699432483559</v>
+        <v>0.9814290129783062</v>
       </c>
       <c r="L4">
-        <v>1.015534922614298</v>
+        <v>0.9825592259617352</v>
       </c>
       <c r="M4">
-        <v>1.01904944613505</v>
+        <v>0.9117938056899031</v>
       </c>
       <c r="N4">
-        <v>1.009309434557271</v>
+        <v>0.9980581033565686</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011093513686318</v>
+        <v>0.9629223508674837</v>
       </c>
       <c r="D5">
-        <v>1.013451783703671</v>
+        <v>0.9728580716140003</v>
       </c>
       <c r="E5">
-        <v>1.013279291445182</v>
+        <v>0.9739285243856063</v>
       </c>
       <c r="F5">
-        <v>1.017183157210875</v>
+        <v>0.907219241719836</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023334863415529</v>
+        <v>1.030913003930385</v>
       </c>
       <c r="J5">
-        <v>1.015647928555391</v>
+        <v>0.9828417671566601</v>
       </c>
       <c r="K5">
-        <v>1.015941086237034</v>
+        <v>0.9830623594181139</v>
       </c>
       <c r="L5">
-        <v>1.015769041472887</v>
+        <v>0.9841193440436852</v>
       </c>
       <c r="M5">
-        <v>1.019662819575479</v>
+        <v>0.9183265827431517</v>
       </c>
       <c r="N5">
-        <v>1.009387248959039</v>
+        <v>0.9986043158088582</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011150115856857</v>
+        <v>0.9632868911687011</v>
       </c>
       <c r="D6">
-        <v>1.013501306897168</v>
+        <v>0.9731700646436636</v>
       </c>
       <c r="E6">
-        <v>1.013327555286461</v>
+        <v>0.9742283175000094</v>
       </c>
       <c r="F6">
-        <v>1.017294648422417</v>
+        <v>0.9083444320882641</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023345760548856</v>
+        <v>1.031137914473815</v>
       </c>
       <c r="J6">
-        <v>1.015687601258604</v>
+        <v>0.9831153679364779</v>
       </c>
       <c r="K6">
-        <v>1.015981561856658</v>
+        <v>0.9833313035319425</v>
       </c>
       <c r="L6">
-        <v>1.015808259265182</v>
+        <v>0.9843763099758479</v>
       </c>
       <c r="M6">
-        <v>1.019765141637691</v>
+        <v>0.9193918678793463</v>
       </c>
       <c r="N6">
-        <v>1.009400278377643</v>
+        <v>0.9986941872569276</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010760306577285</v>
+        <v>0.9607438081830516</v>
       </c>
       <c r="D7">
-        <v>1.013160246246495</v>
+        <v>0.9709927305545953</v>
       </c>
       <c r="E7">
-        <v>1.012995197289315</v>
+        <v>0.9721367751407499</v>
       </c>
       <c r="F7">
-        <v>1.016524156698481</v>
+        <v>0.9004166849743032</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023269769513482</v>
+        <v>1.029550041759259</v>
       </c>
       <c r="J7">
-        <v>1.015414170438911</v>
+        <v>0.9812014580595553</v>
       </c>
       <c r="K7">
-        <v>1.015702668127805</v>
+        <v>0.9814512074420398</v>
       </c>
       <c r="L7">
-        <v>1.015538057085926</v>
+        <v>0.9825804198077677</v>
       </c>
       <c r="M7">
-        <v>1.019057686779217</v>
+        <v>0.9118833075919368</v>
       </c>
       <c r="N7">
-        <v>1.009310476731673</v>
+        <v>0.9980655301577254</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00911577363819</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D8">
-        <v>1.011721297590554</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E8">
-        <v>1.01159370895715</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F8">
-        <v>1.013206441962646</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.022925567630325</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J8">
-        <v>1.01425530918712</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K8">
-        <v>1.014522429533401</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L8">
-        <v>1.014395216334709</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M8">
-        <v>1.016003211375736</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N8">
-        <v>1.008929858640762</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00615858568265</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D9">
-        <v>1.009133483155734</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E9">
-        <v>1.009076105162491</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F9">
-        <v>1.006982351546846</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022217169405401</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J9">
-        <v>1.012151225669846</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K9">
-        <v>1.012386268034593</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L9">
-        <v>1.012329088347824</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M9">
-        <v>1.010242588057758</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N9">
-        <v>1.008238720883246</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004145138349328</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D10">
-        <v>1.007371301044737</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E10">
-        <v>1.007363671239686</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F10">
-        <v>1.002566916081195</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02167456551055</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J10">
-        <v>1.010704881919846</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K10">
-        <v>1.010922404985722</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L10">
-        <v>1.01091480418429</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M10">
-        <v>1.006136380127135</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N10">
-        <v>1.007763588448497</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003262818469038</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D11">
-        <v>1.006599028032638</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E11">
-        <v>1.006613665948987</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F11">
-        <v>1.00058893835483</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021422462053551</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J11">
-        <v>1.01006778061674</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K11">
-        <v>1.0102786611112</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L11">
-        <v>1.010293241184894</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M11">
-        <v>1.004292479803728</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N11">
-        <v>1.007554286559971</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002933462900034</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D12">
-        <v>1.006310741291837</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E12">
-        <v>1.006333762215631</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F12">
-        <v>0.9998440314039331</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021326198589508</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J12">
-        <v>1.009829462773604</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K12">
-        <v>1.010038020133945</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L12">
-        <v>1.010060948802073</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M12">
-        <v>1.003597412787125</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N12">
-        <v>1.007475992353871</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003004185015604</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D13">
-        <v>1.006372645207232</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E13">
-        <v>1.00639386284455</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F13">
-        <v>1.000004282531593</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021346966781681</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J13">
-        <v>1.009880659068163</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K13">
-        <v>1.010089708180945</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L13">
-        <v>1.010110841043771</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M13">
-        <v>1.003746971202148</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N13">
-        <v>1.007492811864144</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00323562722319</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D14">
-        <v>1.006575227591048</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E14">
-        <v>1.006590556153115</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F14">
-        <v>1.000527573789866</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021414558620614</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J14">
-        <v>1.010048115521325</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K14">
-        <v>1.010258801027929</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L14">
-        <v>1.010274068947409</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M14">
-        <v>1.004235234193015</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N14">
-        <v>1.007547826046079</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00337800990943</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D15">
-        <v>1.006699854455835</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E15">
-        <v>1.006711569458924</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F15">
-        <v>1.000848631014647</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02145585549641</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J15">
-        <v>1.010151068312811</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K15">
-        <v>1.010362781242423</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L15">
-        <v>1.010374450182244</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M15">
-        <v>1.004534714655489</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N15">
-        <v>1.007581648751371</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.0042034701378</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D16">
-        <v>1.007422356096577</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E16">
-        <v>1.007413263983092</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F16">
-        <v>1.002696773201763</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021690931723832</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J16">
-        <v>1.010746932500902</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K16">
-        <v>1.010964916496052</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L16">
-        <v>1.01095585885445</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M16">
-        <v>1.006257343655341</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N16">
-        <v>1.007777402782195</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004718420055279</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D17">
-        <v>1.007873060300089</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E17">
-        <v>1.007851112730732</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F17">
-        <v>1.003838189946289</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021833766633006</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J17">
-        <v>1.011117774275572</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K17">
-        <v>1.01133994621156</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L17">
-        <v>1.011318079923213</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M17">
-        <v>1.007320084782005</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N17">
-        <v>1.007899229453754</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005017773465819</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D18">
-        <v>1.008135060266073</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E18">
-        <v>1.008105684228284</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F18">
-        <v>1.004497604098853</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021915428028849</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J18">
-        <v>1.011333038674078</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K18">
-        <v>1.0115577442124</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L18">
-        <v>1.011528475460757</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M18">
-        <v>1.00793362539117</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N18">
-        <v>1.00796994580482</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005119675635105</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D19">
-        <v>1.008224246077959</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E19">
-        <v>1.00819234890344</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F19">
-        <v>1.004721377347333</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021942993562885</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J19">
-        <v>1.01140626292194</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K19">
-        <v>1.011631847690218</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L19">
-        <v>1.011600066452402</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M19">
-        <v>1.008141759450388</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N19">
-        <v>1.007994000479776</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004663275416191</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D20">
-        <v>1.007824796170408</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E20">
-        <v>1.007804220620989</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F20">
-        <v>1.003716385962054</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02181861295899</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J20">
-        <v>1.01107809447978</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K20">
-        <v>1.011299807675259</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L20">
-        <v>1.011279308519776</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M20">
-        <v>1.007206720153434</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N20">
-        <v>1.007886194192515</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003167518453291</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D21">
-        <v>1.006515611962968</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E21">
-        <v>1.006532671602976</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F21">
-        <v>1.000373761351914</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021394727233023</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J21">
-        <v>1.009998850237339</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K21">
-        <v>1.010209049864958</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L21">
-        <v>1.010226041816593</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M21">
-        <v>1.004091735580907</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N21">
-        <v>1.007531641048096</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002217662525463</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D22">
-        <v>1.005684178328557</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E22">
-        <v>1.005725548895555</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F22">
-        <v>0.9982129698157299</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021113024687192</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J22">
-        <v>1.009310600313289</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K22">
-        <v>1.009514396634615</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L22">
-        <v>1.009555596396005</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M22">
-        <v>1.002074293599932</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N22">
-        <v>1.007305528508514</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002722108181929</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D23">
-        <v>1.006125738468164</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E23">
-        <v>1.006154158981539</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F23">
-        <v>0.9993641489682491</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021263815888672</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J23">
-        <v>1.009676388144357</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K23">
-        <v>1.009883498886546</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L23">
-        <v>1.009911804487238</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M23">
-        <v>1.003149455621163</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N23">
-        <v>1.007425702552166</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004688196017542</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D24">
-        <v>1.007846607395211</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E24">
-        <v>1.007825411673208</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F24">
-        <v>1.003771443558863</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021825465353333</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J24">
-        <v>1.011096027286714</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K24">
-        <v>1.011317947486734</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L24">
-        <v>1.011296830370928</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M24">
-        <v>1.007257964318045</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N24">
-        <v>1.007892085325282</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006930326465401</v>
+        <v>0.9489755334319395</v>
       </c>
       <c r="D25">
-        <v>1.00980886605852</v>
+        <v>0.9608862820896243</v>
       </c>
       <c r="E25">
-        <v>1.009732827631846</v>
+        <v>0.9624492034189887</v>
       </c>
       <c r="F25">
-        <v>1.008637385319004</v>
+        <v>0.861142712822855</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.022412558836226</v>
+        <v>1.021609057375237</v>
       </c>
       <c r="J25">
-        <v>1.012702720556014</v>
+        <v>0.9721749950445384</v>
       </c>
       <c r="K25">
-        <v>1.012945382798696</v>
+        <v>0.9726235006481132</v>
       </c>
       <c r="L25">
-        <v>1.012869597039</v>
+        <v>0.9741630505801228</v>
       </c>
       <c r="M25">
-        <v>1.011777799395359</v>
+        <v>0.8746021422960607</v>
       </c>
       <c r="N25">
-        <v>1.008419880898031</v>
+        <v>0.995101290480918</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9455427820219591</v>
+        <v>0.9974604055141619</v>
       </c>
       <c r="D2">
-        <v>0.9579261895454438</v>
+        <v>1.010682335226643</v>
       </c>
       <c r="E2">
-        <v>0.9596186433822135</v>
+        <v>1.004307511657615</v>
       </c>
       <c r="F2">
-        <v>0.8487816928143918</v>
+        <v>1.015522112424943</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.019097450631961</v>
+        <v>1.046366494292114</v>
       </c>
       <c r="J2">
-        <v>0.969483940054691</v>
+        <v>1.019717341653676</v>
       </c>
       <c r="K2">
-        <v>0.9700045583726002</v>
+        <v>1.021994827479867</v>
       </c>
       <c r="L2">
-        <v>0.9716707730788217</v>
+        <v>1.015707160433883</v>
       </c>
       <c r="M2">
-        <v>0.8628451083957129</v>
+        <v>1.026769353489683</v>
       </c>
       <c r="N2">
-        <v>0.9942178209677274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010589704204692</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.029758456681631</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.026622242263134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9551716680901385</v>
+        <v>1.001123840212015</v>
       </c>
       <c r="D3">
-        <v>0.966214446549004</v>
+        <v>1.01333064358253</v>
       </c>
       <c r="E3">
-        <v>0.9675521929740237</v>
+        <v>1.007164826279286</v>
       </c>
       <c r="F3">
-        <v>0.8823788780912577</v>
+        <v>1.018516413522641</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025914457589231</v>
+        <v>1.047120069561579</v>
       </c>
       <c r="J3">
-        <v>0.9769637571417404</v>
+        <v>1.021583915025347</v>
       </c>
       <c r="K3">
-        <v>0.9772986849304508</v>
+        <v>1.023795751011217</v>
       </c>
       <c r="L3">
-        <v>0.9786178038414475</v>
+        <v>1.01770684534925</v>
       </c>
       <c r="M3">
-        <v>0.8947764442618679</v>
+        <v>1.02891773082401</v>
       </c>
       <c r="N3">
-        <v>0.9966737441836253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011211621235432</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031458777058739</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.027892986614928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9607138613556164</v>
+        <v>1.003448371475064</v>
       </c>
       <c r="D4">
-        <v>0.9709670788365197</v>
+        <v>1.015017472229499</v>
       </c>
       <c r="E4">
-        <v>0.9721121432577836</v>
+        <v>1.008983475896366</v>
       </c>
       <c r="F4">
-        <v>0.9003222280635791</v>
+        <v>1.02042444931126</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029531079929699</v>
+        <v>1.047580631772655</v>
       </c>
       <c r="J4">
-        <v>0.9811788468321371</v>
+        <v>1.02276427700345</v>
       </c>
       <c r="K4">
-        <v>0.9814290129783062</v>
+        <v>1.024937966321441</v>
       </c>
       <c r="L4">
-        <v>0.9825592259617352</v>
+        <v>1.018974674040951</v>
       </c>
       <c r="M4">
-        <v>0.9117938056899031</v>
+        <v>1.030282463671922</v>
       </c>
       <c r="N4">
-        <v>0.9980581033565686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011604963733152</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.032538884544362</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.028701567072653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9629223508674837</v>
+        <v>1.004418223494223</v>
       </c>
       <c r="D5">
-        <v>0.9728580716140003</v>
+        <v>1.01572565329568</v>
       </c>
       <c r="E5">
-        <v>0.9739285243856063</v>
+        <v>1.009743938050422</v>
       </c>
       <c r="F5">
-        <v>0.907219241719836</v>
+        <v>1.021221156810286</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030913003930385</v>
+        <v>1.047769187279796</v>
       </c>
       <c r="J5">
-        <v>0.9828417671566601</v>
+        <v>1.023257306593166</v>
       </c>
       <c r="K5">
-        <v>0.9830623594181139</v>
+        <v>1.025417980653979</v>
       </c>
       <c r="L5">
-        <v>0.9841193440436852</v>
+        <v>1.019504480761109</v>
       </c>
       <c r="M5">
-        <v>0.9183265827431517</v>
+        <v>1.030851680644155</v>
       </c>
       <c r="N5">
-        <v>0.9986043158088582</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011769522860463</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.032989386516951</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.029048266238159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,81 +645,105 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9632868911687011</v>
+        <v>1.004584482880585</v>
       </c>
       <c r="D6">
-        <v>0.9731700646436636</v>
+        <v>1.015850636583185</v>
       </c>
       <c r="E6">
-        <v>0.9742283175000094</v>
+        <v>1.009874811314137</v>
       </c>
       <c r="F6">
-        <v>0.9083444320882641</v>
+        <v>1.021356274062103</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031137914473815</v>
+        <v>1.04780210516055</v>
       </c>
       <c r="J6">
-        <v>0.9831153679364779</v>
+        <v>1.023343652742292</v>
       </c>
       <c r="K6">
-        <v>0.9833313035319425</v>
+        <v>1.025504630200818</v>
       </c>
       <c r="L6">
-        <v>0.9843763099758479</v>
+        <v>1.019596639118792</v>
       </c>
       <c r="M6">
-        <v>0.9193918678793463</v>
+        <v>1.030948635234405</v>
       </c>
       <c r="N6">
-        <v>0.9986941872569276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011798645239117</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.033066120380948</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.029118411271736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>0.9607438081830516</v>
+        <v>1.003472244630794</v>
       </c>
       <c r="D7">
-        <v>0.9709927305545953</v>
+        <v>1.015044249343287</v>
       </c>
       <c r="E7">
-        <v>0.9721367751407499</v>
+        <v>1.009003356864939</v>
       </c>
       <c r="F7">
-        <v>0.9004166849743032</v>
+        <v>1.020439821185934</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029550041759259</v>
+        <v>1.047587569623992</v>
       </c>
       <c r="J7">
-        <v>0.9812014580595553</v>
+        <v>1.022781486822064</v>
       </c>
       <c r="K7">
-        <v>0.9814512074420398</v>
+        <v>1.02496149032069</v>
       </c>
       <c r="L7">
-        <v>0.9825804198077677</v>
+        <v>1.018991354949297</v>
       </c>
       <c r="M7">
-        <v>0.9118833075919368</v>
+        <v>1.030294738273732</v>
       </c>
       <c r="N7">
-        <v>0.9980655301577254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011611527857688</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.032548599177512</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.028738615781667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9489755334319395</v>
+        <v>0.9987218536804047</v>
       </c>
       <c r="D8">
-        <v>0.9608862820896243</v>
+        <v>1.011604488359912</v>
       </c>
       <c r="E8">
-        <v>0.9624492034189887</v>
+        <v>1.005291717641078</v>
       </c>
       <c r="F8">
-        <v>0.861142712822855</v>
+        <v>1.016546191848794</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.021609057375237</v>
+        <v>1.046632317986657</v>
       </c>
       <c r="J8">
-        <v>0.9721749950445384</v>
+        <v>1.020367197321905</v>
       </c>
       <c r="K8">
-        <v>0.9726235006481132</v>
+        <v>1.022629530759503</v>
       </c>
       <c r="L8">
-        <v>0.9741630505801228</v>
+        <v>1.016400483202848</v>
       </c>
       <c r="M8">
-        <v>0.8746021422960607</v>
+        <v>1.027506603491705</v>
       </c>
       <c r="N8">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010807284767871</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.030341949250085</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.02709431816622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9489755334319395</v>
+        <v>0.9899670433721557</v>
       </c>
       <c r="D9">
-        <v>0.9608862820896243</v>
+        <v>1.005302529045781</v>
       </c>
       <c r="E9">
-        <v>0.9624492034189887</v>
+        <v>0.9984955319940622</v>
       </c>
       <c r="F9">
-        <v>0.861142712822855</v>
+        <v>1.009442642982815</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021609057375237</v>
+        <v>1.044731400322371</v>
       </c>
       <c r="J9">
-        <v>0.9721749950445384</v>
+        <v>1.015879134628389</v>
       </c>
       <c r="K9">
-        <v>0.9726235006481132</v>
+        <v>1.018310158265713</v>
       </c>
       <c r="L9">
-        <v>0.9741630505801228</v>
+        <v>1.01161306539284</v>
       </c>
       <c r="M9">
-        <v>0.8746021422960607</v>
+        <v>1.022384355322301</v>
       </c>
       <c r="N9">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009311369887017</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.02628796316182</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.024036902682773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9489755334319395</v>
+        <v>0.9839466744816904</v>
       </c>
       <c r="D10">
-        <v>0.9608862820896243</v>
+        <v>1.001018406513268</v>
       </c>
       <c r="E10">
-        <v>0.9624492034189887</v>
+        <v>0.9938643157056138</v>
       </c>
       <c r="F10">
-        <v>0.861142712822855</v>
+        <v>1.004853621638871</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021609057375237</v>
+        <v>1.043350883328544</v>
       </c>
       <c r="J10">
-        <v>0.9721749950445384</v>
+        <v>1.012812018656386</v>
       </c>
       <c r="K10">
-        <v>0.9726235006481132</v>
+        <v>1.015369297629183</v>
       </c>
       <c r="L10">
-        <v>0.9741630505801228</v>
+        <v>1.008345242617425</v>
       </c>
       <c r="M10">
-        <v>0.8746021422960607</v>
+        <v>1.019135791956816</v>
       </c>
       <c r="N10">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008293720201688</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.023769259343784</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.021974567157585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9489755334319395</v>
+        <v>0.9819181029883558</v>
       </c>
       <c r="D11">
-        <v>0.9608862820896243</v>
+        <v>0.9996684858346003</v>
       </c>
       <c r="E11">
-        <v>0.9624492034189887</v>
+        <v>0.9923827395182261</v>
       </c>
       <c r="F11">
-        <v>0.861142712822855</v>
+        <v>1.005303931304271</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021609057375237</v>
+        <v>1.042974195671246</v>
       </c>
       <c r="J11">
-        <v>0.9721749950445384</v>
+        <v>1.012062948880124</v>
       </c>
       <c r="K11">
-        <v>0.9726235006481132</v>
+        <v>1.014596656736257</v>
       </c>
       <c r="L11">
-        <v>0.9741630505801228</v>
+        <v>1.007449750237023</v>
       </c>
       <c r="M11">
-        <v>0.8746021422960607</v>
+        <v>1.020126511655504</v>
       </c>
       <c r="N11">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008079478955769</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.02499641963658</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.021461707168528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9489755334319395</v>
+        <v>0.9813586702189467</v>
       </c>
       <c r="D12">
-        <v>0.9608862820896243</v>
+        <v>0.9993248396569748</v>
       </c>
       <c r="E12">
-        <v>0.9624492034189887</v>
+        <v>0.9920056417723773</v>
       </c>
       <c r="F12">
-        <v>0.861142712822855</v>
+        <v>1.006289874321113</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021609057375237</v>
+        <v>1.042909870786546</v>
       </c>
       <c r="J12">
-        <v>0.9721749950445384</v>
+        <v>1.011973467892084</v>
       </c>
       <c r="K12">
-        <v>0.9726235006481132</v>
+        <v>1.014464986114491</v>
       </c>
       <c r="L12">
-        <v>0.9741630505801228</v>
+        <v>1.007287620640781</v>
       </c>
       <c r="M12">
-        <v>0.8746021422960607</v>
+        <v>1.021297554298247</v>
       </c>
       <c r="N12">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00807602089868</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.026253388367603</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.021368608528819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9489755334319395</v>
+        <v>0.981905231906755</v>
       </c>
       <c r="D13">
-        <v>0.9608862820896243</v>
+        <v>0.9997508123136617</v>
       </c>
       <c r="E13">
-        <v>0.9624492034189887</v>
+        <v>0.9924623895343492</v>
       </c>
       <c r="F13">
-        <v>0.861142712822855</v>
+        <v>1.007781100312023</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021609057375237</v>
+        <v>1.043093264946221</v>
       </c>
       <c r="J13">
-        <v>0.9721749950445384</v>
+        <v>1.012400136462189</v>
       </c>
       <c r="K13">
-        <v>0.9726235006481132</v>
+        <v>1.014838737959727</v>
       </c>
       <c r="L13">
-        <v>0.9741630505801228</v>
+        <v>1.007690912499179</v>
       </c>
       <c r="M13">
-        <v>0.8746021422960607</v>
+        <v>1.022717191287487</v>
       </c>
       <c r="N13">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008240557046609</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.027655542274065</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.021630334053153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9489755334319395</v>
+        <v>0.9827820700530943</v>
       </c>
       <c r="D14">
-        <v>0.9608862820896243</v>
+        <v>1.000393980232891</v>
       </c>
       <c r="E14">
-        <v>0.9624492034189887</v>
+        <v>0.9931540310310467</v>
       </c>
       <c r="F14">
-        <v>0.861142712822855</v>
+        <v>1.009028085302153</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021609057375237</v>
+        <v>1.043330822608835</v>
       </c>
       <c r="J14">
-        <v>0.9721749950445384</v>
+        <v>1.012925807549403</v>
       </c>
       <c r="K14">
-        <v>0.9726235006481132</v>
+        <v>1.015325429599079</v>
       </c>
       <c r="L14">
-        <v>0.9741630505801228</v>
+        <v>1.008223357568937</v>
       </c>
       <c r="M14">
-        <v>0.8746021422960607</v>
+        <v>1.023798478356637</v>
       </c>
       <c r="N14">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008429579996833</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.028685132494828</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.021975903568861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9489755334319395</v>
+        <v>0.9832474133419785</v>
       </c>
       <c r="D15">
-        <v>0.9608862820896243</v>
+        <v>1.000730562187589</v>
       </c>
       <c r="E15">
-        <v>0.9624492034189887</v>
+        <v>0.9935143032075974</v>
       </c>
       <c r="F15">
-        <v>0.861142712822855</v>
+        <v>1.009490525043944</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021609057375237</v>
+        <v>1.043447265704145</v>
       </c>
       <c r="J15">
-        <v>0.9721749950445384</v>
+        <v>1.013178696619536</v>
       </c>
       <c r="K15">
-        <v>0.9726235006481132</v>
+        <v>1.015566863248952</v>
       </c>
       <c r="L15">
-        <v>0.9741630505801228</v>
+        <v>1.008486961270006</v>
       </c>
       <c r="M15">
-        <v>0.8746021422960607</v>
+        <v>1.024164710350937</v>
       </c>
       <c r="N15">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008516759152025</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.029012428734886</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.022152587929618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9489755334319395</v>
+        <v>0.985682492251479</v>
       </c>
       <c r="D16">
-        <v>0.9608862820896243</v>
+        <v>1.002454130953799</v>
       </c>
       <c r="E16">
-        <v>0.9624492034189887</v>
+        <v>0.99537385353497</v>
       </c>
       <c r="F16">
-        <v>0.861142712822855</v>
+        <v>1.011189635455036</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021609057375237</v>
+        <v>1.04401366064304</v>
       </c>
       <c r="J16">
-        <v>0.9721749950445384</v>
+        <v>1.014397264953939</v>
       </c>
       <c r="K16">
-        <v>0.9726235006481132</v>
+        <v>1.016742668318453</v>
       </c>
       <c r="L16">
-        <v>0.9741630505801228</v>
+        <v>1.009790214870484</v>
       </c>
       <c r="M16">
-        <v>0.8746021422960607</v>
+        <v>1.025323661326224</v>
       </c>
       <c r="N16">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008917084415088</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.029889431231248</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.022987173635014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9489755334319395</v>
+        <v>0.9870986964425761</v>
       </c>
       <c r="D17">
-        <v>0.9608862820896243</v>
+        <v>1.003447249917923</v>
       </c>
       <c r="E17">
-        <v>0.9624492034189887</v>
+        <v>0.9964459987661403</v>
       </c>
       <c r="F17">
-        <v>0.861142712822855</v>
+        <v>1.011844930372694</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021609057375237</v>
+        <v>1.044322210770581</v>
       </c>
       <c r="J17">
-        <v>0.9721749950445384</v>
+        <v>1.015061842479962</v>
       </c>
       <c r="K17">
-        <v>0.9726235006481132</v>
+        <v>1.017395105131452</v>
       </c>
       <c r="L17">
-        <v>0.9741630505801228</v>
+        <v>1.010516630780362</v>
       </c>
       <c r="M17">
-        <v>0.8746021422960607</v>
+        <v>1.025648414298708</v>
       </c>
       <c r="N17">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009126840185546</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.030015991184343</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.023451118040491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9489755334319395</v>
+        <v>0.9877383481689791</v>
       </c>
       <c r="D18">
-        <v>0.9608862820896243</v>
+        <v>1.003867593535976</v>
       </c>
       <c r="E18">
-        <v>0.9624492034189887</v>
+        <v>0.9969081639230357</v>
       </c>
       <c r="F18">
-        <v>0.861142712822855</v>
+        <v>1.011496525561956</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021609057375237</v>
+        <v>1.044426870815488</v>
       </c>
       <c r="J18">
-        <v>0.9721749950445384</v>
+        <v>1.015272725515788</v>
       </c>
       <c r="K18">
-        <v>0.9726235006481132</v>
+        <v>1.017619899565044</v>
       </c>
       <c r="L18">
-        <v>0.9741630505801228</v>
+        <v>1.010780480761202</v>
       </c>
       <c r="M18">
-        <v>0.8746021422960607</v>
+        <v>1.025119721477399</v>
       </c>
       <c r="N18">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009177671800576</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.029357975082229</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.023598221203938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9489755334319395</v>
+        <v>0.9876578083779727</v>
       </c>
       <c r="D19">
-        <v>0.9608862820896243</v>
+        <v>1.003767677597253</v>
       </c>
       <c r="E19">
-        <v>0.9624492034189887</v>
+        <v>0.996802767328606</v>
       </c>
       <c r="F19">
-        <v>0.861142712822855</v>
+        <v>1.010136930999205</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021609057375237</v>
+        <v>1.0443431438469</v>
       </c>
       <c r="J19">
-        <v>0.9721749950445384</v>
+        <v>1.015057929439819</v>
       </c>
       <c r="K19">
-        <v>0.9726235006481132</v>
+        <v>1.017457495282083</v>
       </c>
       <c r="L19">
-        <v>0.9741630505801228</v>
+        <v>1.010612077208836</v>
       </c>
       <c r="M19">
-        <v>0.8746021422960607</v>
+        <v>1.023719334747781</v>
       </c>
       <c r="N19">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009081852832818</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.027921173548562</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.023489898880934</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9489755334319395</v>
+        <v>0.9855388281773083</v>
       </c>
       <c r="D20">
-        <v>0.9608862820896243</v>
+        <v>1.002172432220718</v>
       </c>
       <c r="E20">
-        <v>0.9624492034189887</v>
+        <v>0.9950904102464329</v>
       </c>
       <c r="F20">
-        <v>0.861142712822855</v>
+        <v>1.006065819189055</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021609057375237</v>
+        <v>1.043727645947641</v>
       </c>
       <c r="J20">
-        <v>0.9721749950445384</v>
+        <v>1.013638814844046</v>
       </c>
       <c r="K20">
-        <v>0.9726235006481132</v>
+        <v>1.016177189286133</v>
       </c>
       <c r="L20">
-        <v>0.9741630505801228</v>
+        <v>1.009220141744618</v>
       </c>
       <c r="M20">
-        <v>0.8746021422960607</v>
+        <v>1.020002840509387</v>
       </c>
       <c r="N20">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.00857061039887</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.024444710118809</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.022588637099746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9489755334319395</v>
+        <v>0.9808838055441863</v>
       </c>
       <c r="D21">
-        <v>0.9608862820896243</v>
+        <v>0.9988528895967629</v>
       </c>
       <c r="E21">
-        <v>0.9624492034189887</v>
+        <v>0.9915075592878367</v>
       </c>
       <c r="F21">
-        <v>0.861142712822855</v>
+        <v>1.002144119698315</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021609057375237</v>
+        <v>1.042608923620423</v>
       </c>
       <c r="J21">
-        <v>0.9721749950445384</v>
+        <v>1.01120309468975</v>
       </c>
       <c r="K21">
-        <v>0.9726235006481132</v>
+        <v>1.013856026974383</v>
       </c>
       <c r="L21">
-        <v>0.9741630505801228</v>
+        <v>1.006651629760957</v>
       </c>
       <c r="M21">
-        <v>0.8746021422960607</v>
+        <v>1.017084984615434</v>
       </c>
       <c r="N21">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007755999598512</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.022093768747367</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.020950724521126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9489755334319395</v>
+        <v>0.9779220762920892</v>
       </c>
       <c r="D22">
-        <v>0.9608862820896243</v>
+        <v>0.9967449722367087</v>
       </c>
       <c r="E22">
-        <v>0.9624492034189887</v>
+        <v>0.9892387423854524</v>
       </c>
       <c r="F22">
-        <v>0.861142712822855</v>
+        <v>0.9997894727362453</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021609057375237</v>
+        <v>1.041884559218051</v>
       </c>
       <c r="J22">
-        <v>0.9721749950445384</v>
+        <v>1.009662834517659</v>
       </c>
       <c r="K22">
-        <v>0.9726235006481132</v>
+        <v>1.012381188830174</v>
       </c>
       <c r="L22">
-        <v>0.9741630505801228</v>
+        <v>1.005026439286313</v>
       </c>
       <c r="M22">
-        <v>0.8746021422960607</v>
+        <v>1.015365101366811</v>
       </c>
       <c r="N22">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007241898274767</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.020732559132155</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.019894151653302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9489755334319395</v>
+        <v>0.9794877770394875</v>
       </c>
       <c r="D23">
-        <v>0.9608862820896243</v>
+        <v>0.997850127857035</v>
       </c>
       <c r="E23">
-        <v>0.9624492034189887</v>
+        <v>0.9904360700928797</v>
       </c>
       <c r="F23">
-        <v>0.861142712822855</v>
+        <v>1.001037031219867</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021609057375237</v>
+        <v>1.042267477818151</v>
       </c>
       <c r="J23">
-        <v>0.9721749950445384</v>
+        <v>1.010472794929778</v>
       </c>
       <c r="K23">
-        <v>0.9726235006481132</v>
+        <v>1.013150492684861</v>
       </c>
       <c r="L23">
-        <v>0.9741630505801228</v>
+        <v>1.005882134674875</v>
       </c>
       <c r="M23">
-        <v>0.8746021422960607</v>
+        <v>1.016275636390759</v>
       </c>
       <c r="N23">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007511340754802</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.021453206665319</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.020428280642732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9489755334319395</v>
+        <v>0.985535678644841</v>
       </c>
       <c r="D24">
-        <v>0.9608862820896243</v>
+        <v>1.002149437013078</v>
       </c>
       <c r="E24">
-        <v>0.9624492034189887</v>
+        <v>0.995079158383099</v>
       </c>
       <c r="F24">
-        <v>0.861142712822855</v>
+        <v>1.005871389868911</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021609057375237</v>
+        <v>1.043713895069743</v>
       </c>
       <c r="J24">
-        <v>0.9721749950445384</v>
+        <v>1.013602119030515</v>
       </c>
       <c r="K24">
-        <v>0.9726235006481132</v>
+        <v>1.016138910981417</v>
       </c>
       <c r="L24">
-        <v>0.9741630505801228</v>
+        <v>1.009193244134708</v>
       </c>
       <c r="M24">
-        <v>0.8746021422960607</v>
+        <v>1.019796175942725</v>
       </c>
       <c r="N24">
-        <v>0.995101290480918</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008553986700575</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.024239548181796</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.0225336692125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9489755334319395</v>
+        <v>0.9922935726030884</v>
       </c>
       <c r="D25">
-        <v>0.9608862820896243</v>
+        <v>1.006985464258751</v>
       </c>
       <c r="E25">
-        <v>0.9624492034189887</v>
+        <v>1.000297981629517</v>
       </c>
       <c r="F25">
-        <v>0.861142712822855</v>
+        <v>1.01131590597181</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021609057375237</v>
+        <v>1.04525536254437</v>
       </c>
       <c r="J25">
-        <v>0.9721749950445384</v>
+        <v>1.017083101532288</v>
       </c>
       <c r="K25">
-        <v>0.9726235006481132</v>
+        <v>1.019476299166157</v>
       </c>
       <c r="L25">
-        <v>0.9741630505801228</v>
+        <v>1.012891673577492</v>
       </c>
       <c r="M25">
-        <v>0.8746021422960607</v>
+        <v>1.023741060561527</v>
       </c>
       <c r="N25">
-        <v>0.995101290480918</v>
+        <v>1.009714020639626</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.027361725285114</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.024890539882029</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9974604055141619</v>
+        <v>0.998243428156368</v>
       </c>
       <c r="D2">
-        <v>1.010682335226643</v>
+        <v>1.011577197381987</v>
       </c>
       <c r="E2">
-        <v>1.004307511657615</v>
+        <v>1.004988341177212</v>
       </c>
       <c r="F2">
-        <v>1.015522112424943</v>
+        <v>1.015861320518669</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046366494292114</v>
+        <v>1.046681523610151</v>
       </c>
       <c r="J2">
-        <v>1.019717341653676</v>
+        <v>1.02047680522254</v>
       </c>
       <c r="K2">
-        <v>1.021994827479867</v>
+        <v>1.02287756568498</v>
       </c>
       <c r="L2">
-        <v>1.015707160433883</v>
+        <v>1.016378615204901</v>
       </c>
       <c r="M2">
-        <v>1.026769353489683</v>
+        <v>1.027104017579135</v>
       </c>
       <c r="N2">
-        <v>1.010589704204692</v>
+        <v>1.012716347983096</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029758456681631</v>
+        <v>1.030023324844991</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.026622242263134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.02725534728542</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018226158052931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001123840212015</v>
+        <v>1.001746293141559</v>
       </c>
       <c r="D3">
-        <v>1.01333064358253</v>
+        <v>1.01398065034402</v>
       </c>
       <c r="E3">
-        <v>1.007164826279286</v>
+        <v>1.007706750672161</v>
       </c>
       <c r="F3">
-        <v>1.018516413522641</v>
+        <v>1.018785698594159</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047120069561579</v>
+        <v>1.047371165989019</v>
       </c>
       <c r="J3">
-        <v>1.021583915025347</v>
+        <v>1.022189465386113</v>
       </c>
       <c r="K3">
-        <v>1.023795751011217</v>
+        <v>1.024437717521129</v>
       </c>
       <c r="L3">
-        <v>1.01770684534925</v>
+        <v>1.018241962801363</v>
       </c>
       <c r="M3">
-        <v>1.02891773082401</v>
+        <v>1.029183725472838</v>
       </c>
       <c r="N3">
-        <v>1.011211621235432</v>
+        <v>1.013169265023693</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031458777058739</v>
+        <v>1.031669296641846</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.027892986614928</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.028355558106125</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018544701244104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003448371475064</v>
+        <v>1.003970070472948</v>
       </c>
       <c r="D4">
-        <v>1.015017472229499</v>
+        <v>1.015512820711952</v>
       </c>
       <c r="E4">
-        <v>1.008983475896366</v>
+        <v>1.00943808523348</v>
       </c>
       <c r="F4">
-        <v>1.02042444931126</v>
+        <v>1.020649952181616</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047580631772655</v>
+        <v>1.047791442317989</v>
       </c>
       <c r="J4">
-        <v>1.02276427700345</v>
+        <v>1.02327276377193</v>
       </c>
       <c r="K4">
-        <v>1.024937966321441</v>
+        <v>1.025427556638151</v>
       </c>
       <c r="L4">
-        <v>1.018974674040951</v>
+        <v>1.019423919985178</v>
       </c>
       <c r="M4">
-        <v>1.030282463671922</v>
+        <v>1.030505378521298</v>
       </c>
       <c r="N4">
-        <v>1.011604963733152</v>
+        <v>1.013455826463779</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032538884544362</v>
+        <v>1.032715308656616</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.028701567072653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.029056470682331</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.018744392806873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004418223494223</v>
+        <v>1.004898051182696</v>
       </c>
       <c r="D5">
-        <v>1.01572565329568</v>
+        <v>1.016156567571211</v>
       </c>
       <c r="E5">
-        <v>1.009743938050422</v>
+        <v>1.010162220168251</v>
       </c>
       <c r="F5">
-        <v>1.021221156810286</v>
+        <v>1.021428486554633</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047769187279796</v>
+        <v>1.047963215919735</v>
       </c>
       <c r="J5">
-        <v>1.023257306593166</v>
+        <v>1.023725344018257</v>
       </c>
       <c r="K5">
-        <v>1.025417980653979</v>
+        <v>1.025844019016076</v>
       </c>
       <c r="L5">
-        <v>1.019504480761109</v>
+        <v>1.019917960370296</v>
       </c>
       <c r="M5">
-        <v>1.030851680644155</v>
+        <v>1.031056694739669</v>
       </c>
       <c r="N5">
-        <v>1.011769522860463</v>
+        <v>1.013575752358717</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.032989386516951</v>
+        <v>1.033151643123091</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.029048266238159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.029358940511795</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.018828349612275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,105 +687,123 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004584482880585</v>
+        <v>1.005057035995492</v>
       </c>
       <c r="D6">
-        <v>1.015850636583185</v>
+        <v>1.016270429276444</v>
       </c>
       <c r="E6">
-        <v>1.009874811314137</v>
+        <v>1.010286771031059</v>
       </c>
       <c r="F6">
-        <v>1.021356274062103</v>
+        <v>1.021560448258508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04780210516055</v>
+        <v>1.047993214934726</v>
       </c>
       <c r="J6">
-        <v>1.023343652742292</v>
+        <v>1.023804653820928</v>
       </c>
       <c r="K6">
-        <v>1.025504630200818</v>
+        <v>1.025919694589162</v>
       </c>
       <c r="L6">
-        <v>1.019596639118792</v>
+        <v>1.020003890729033</v>
       </c>
       <c r="M6">
-        <v>1.030948635234405</v>
+        <v>1.031150539533342</v>
       </c>
       <c r="N6">
-        <v>1.011798645239117</v>
+        <v>1.013596996327433</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.033066120380948</v>
+        <v>1.033225915748689</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.029118411271736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.029422193206556</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.018844208016538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003472244630794</v>
+        <v>1.003999059172777</v>
       </c>
       <c r="D7">
-        <v>1.015044249343287</v>
+        <v>1.015542862353364</v>
       </c>
       <c r="E7">
-        <v>1.009003356864939</v>
+        <v>1.009462518332513</v>
       </c>
       <c r="F7">
-        <v>1.020439821185934</v>
+        <v>1.020667534129701</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047587569623992</v>
+        <v>1.047800449506815</v>
       </c>
       <c r="J7">
-        <v>1.022781486822064</v>
+        <v>1.023294965410168</v>
       </c>
       <c r="K7">
-        <v>1.02496149032069</v>
+        <v>1.025454309557788</v>
       </c>
       <c r="L7">
-        <v>1.018991354949297</v>
+        <v>1.019445101429742</v>
       </c>
       <c r="M7">
-        <v>1.030294738273732</v>
+        <v>1.030519838809995</v>
       </c>
       <c r="N7">
-        <v>1.011611527857688</v>
+        <v>1.013488173286147</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032548599177512</v>
+        <v>1.032726753130868</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.028738615781667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.029097798295295</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.018752066649644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9987218536804047</v>
+        <v>0.9994686911536532</v>
       </c>
       <c r="D8">
-        <v>1.011604488359912</v>
+        <v>1.012430146231262</v>
       </c>
       <c r="E8">
-        <v>1.005291717641078</v>
+        <v>1.005941733516009</v>
       </c>
       <c r="F8">
-        <v>1.016546191848794</v>
+        <v>1.016869576008461</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046632317986657</v>
+        <v>1.04693306203768</v>
       </c>
       <c r="J8">
-        <v>1.020367197321905</v>
+        <v>1.021092316784324</v>
       </c>
       <c r="K8">
-        <v>1.022629530759503</v>
+        <v>1.02344433512309</v>
       </c>
       <c r="L8">
-        <v>1.016400483202848</v>
+        <v>1.017041817299844</v>
       </c>
       <c r="M8">
-        <v>1.027506603491705</v>
+        <v>1.02782578564328</v>
       </c>
       <c r="N8">
-        <v>1.010807284767871</v>
+        <v>1.012958470358508</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030341949250085</v>
+        <v>1.030594564103601</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.02709431816622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.027681645915197</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018346226475323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9899670433721557</v>
+        <v>0.9911079621008112</v>
       </c>
       <c r="D9">
-        <v>1.005302529045781</v>
+        <v>1.006720274334591</v>
       </c>
       <c r="E9">
-        <v>0.9984955319940622</v>
+        <v>0.9994854738793806</v>
       </c>
       <c r="F9">
-        <v>1.009442642982815</v>
+        <v>1.009938245452206</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044731400322371</v>
+        <v>1.045187939190775</v>
       </c>
       <c r="J9">
-        <v>1.015879134628389</v>
+        <v>1.016978676524584</v>
       </c>
       <c r="K9">
-        <v>1.018310158265713</v>
+        <v>1.019705252669604</v>
       </c>
       <c r="L9">
-        <v>1.01161306539284</v>
+        <v>1.012586904430428</v>
       </c>
       <c r="M9">
-        <v>1.022384355322301</v>
+        <v>1.022872113428968</v>
       </c>
       <c r="N9">
-        <v>1.009311369887017</v>
+        <v>1.011879853476261</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.02628796316182</v>
+        <v>1.026673998704329</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.024036902682773</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.025034286803878</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017567658405343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9839466744816904</v>
+        <v>0.9853912205877594</v>
       </c>
       <c r="D10">
-        <v>1.001018406513268</v>
+        <v>1.002866403311131</v>
       </c>
       <c r="E10">
-        <v>0.9938643157056138</v>
+        <v>0.9951153877203985</v>
       </c>
       <c r="F10">
-        <v>1.004853621638871</v>
+        <v>1.005481844243758</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043350883328544</v>
+        <v>1.043926384708203</v>
       </c>
       <c r="J10">
-        <v>1.012812018656386</v>
+        <v>1.014196682878082</v>
       </c>
       <c r="K10">
-        <v>1.015369297629183</v>
+        <v>1.017184096107901</v>
       </c>
       <c r="L10">
-        <v>1.008345242617425</v>
+        <v>1.009573398986326</v>
       </c>
       <c r="M10">
-        <v>1.019135791956816</v>
+        <v>1.019752822696204</v>
       </c>
       <c r="N10">
-        <v>1.008293720201688</v>
+        <v>1.011264359012762</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.023769259343784</v>
+        <v>1.02425757777688</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.021974567157585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.02327040327117</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017038362805369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9819181029883558</v>
+        <v>0.9834852400819364</v>
       </c>
       <c r="D11">
-        <v>0.9996684858346003</v>
+        <v>1.001666996668946</v>
       </c>
       <c r="E11">
-        <v>0.9923827395182261</v>
+        <v>0.9937376173477205</v>
       </c>
       <c r="F11">
-        <v>1.005303931304271</v>
+        <v>1.00598029687024</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042974195671246</v>
+        <v>1.043597366675933</v>
       </c>
       <c r="J11">
-        <v>1.012062948880124</v>
+        <v>1.013561565088948</v>
       </c>
       <c r="K11">
-        <v>1.014596656736257</v>
+        <v>1.016557544197998</v>
       </c>
       <c r="L11">
-        <v>1.007449750237023</v>
+        <v>1.008778607307314</v>
       </c>
       <c r="M11">
-        <v>1.020126511655504</v>
+        <v>1.020790307959145</v>
       </c>
       <c r="N11">
-        <v>1.008079478955769</v>
+        <v>1.011348871588008</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.02499641963658</v>
+        <v>1.02552147509431</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.021461707168528</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.022864037647672</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.016948860342836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9813586702189467</v>
+        <v>0.9829552685956836</v>
       </c>
       <c r="D12">
-        <v>0.9993248396569748</v>
+        <v>1.00135692316156</v>
       </c>
       <c r="E12">
-        <v>0.9920056417723773</v>
+        <v>0.9933840100489906</v>
       </c>
       <c r="F12">
-        <v>1.006289874321113</v>
+        <v>1.006975090940726</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042909870786546</v>
+        <v>1.043544326485861</v>
       </c>
       <c r="J12">
-        <v>1.011973467892084</v>
+        <v>1.013498929372284</v>
       </c>
       <c r="K12">
-        <v>1.014464986114491</v>
+        <v>1.01645817275685</v>
       </c>
       <c r="L12">
-        <v>1.007287620640781</v>
+        <v>1.008639069204142</v>
       </c>
       <c r="M12">
-        <v>1.021297554298247</v>
+        <v>1.021969868254012</v>
       </c>
       <c r="N12">
-        <v>1.00807602089868</v>
+        <v>1.011451436554895</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.026253388367603</v>
+        <v>1.02678499641229</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.021368608528819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.022793778151886</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.016956699290896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.981905231906755</v>
+        <v>0.9834525136234411</v>
       </c>
       <c r="D13">
-        <v>0.9997508123136617</v>
+        <v>1.001721312024521</v>
       </c>
       <c r="E13">
-        <v>0.9924623895343492</v>
+        <v>0.9937963536226672</v>
       </c>
       <c r="F13">
-        <v>1.007781100312023</v>
+        <v>1.008442157346236</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043093264946221</v>
+        <v>1.043708244278601</v>
       </c>
       <c r="J13">
-        <v>1.012400136462189</v>
+        <v>1.013878836376542</v>
       </c>
       <c r="K13">
-        <v>1.014838737959727</v>
+        <v>1.016771685203304</v>
       </c>
       <c r="L13">
-        <v>1.007690912499179</v>
+        <v>1.008998941638085</v>
       </c>
       <c r="M13">
-        <v>1.022717191287487</v>
+        <v>1.023365889814254</v>
       </c>
       <c r="N13">
-        <v>1.008240557046609</v>
+        <v>1.011544068357988</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.027655542274065</v>
+        <v>1.02816834588993</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.021630334053153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.02301266439309</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017045297058621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9827820700530943</v>
+        <v>0.9842604321702719</v>
       </c>
       <c r="D14">
-        <v>1.000393980232891</v>
+        <v>1.002279683955219</v>
       </c>
       <c r="E14">
-        <v>0.9931540310310467</v>
+        <v>0.9944274363375036</v>
       </c>
       <c r="F14">
-        <v>1.009028085302153</v>
+        <v>1.009658072561623</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043330822608835</v>
+        <v>1.043918722674607</v>
       </c>
       <c r="J14">
-        <v>1.012925807549403</v>
+        <v>1.014339591594259</v>
       </c>
       <c r="K14">
-        <v>1.015325429599079</v>
+        <v>1.017175649058468</v>
       </c>
       <c r="L14">
-        <v>1.008223357568937</v>
+        <v>1.009472321758374</v>
       </c>
       <c r="M14">
-        <v>1.023798478356637</v>
+        <v>1.024416854642757</v>
       </c>
       <c r="N14">
-        <v>1.008429579996833</v>
+        <v>1.011604099566547</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.028685132494828</v>
+        <v>1.029173899243899</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.021975903568861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.023299871212537</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017143403323293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9832474133419785</v>
+        <v>0.9846917962480418</v>
       </c>
       <c r="D15">
-        <v>1.000730562187589</v>
+        <v>1.002574325375759</v>
       </c>
       <c r="E15">
-        <v>0.9935143032075974</v>
+        <v>0.9947582030269551</v>
       </c>
       <c r="F15">
-        <v>1.009490525043944</v>
+        <v>1.01010570256733</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043447265704145</v>
+        <v>1.044021836223972</v>
       </c>
       <c r="J15">
-        <v>1.013178696619536</v>
+        <v>1.014560540730788</v>
       </c>
       <c r="K15">
-        <v>1.015566863248952</v>
+        <v>1.017376197820014</v>
       </c>
       <c r="L15">
-        <v>1.008486961270006</v>
+        <v>1.009707172050396</v>
       </c>
       <c r="M15">
-        <v>1.024164710350937</v>
+        <v>1.02476864068291</v>
       </c>
       <c r="N15">
-        <v>1.008516759152025</v>
+        <v>1.011622890462821</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.029012428734886</v>
+        <v>1.029489764697796</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.022152587929618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.023448211969138</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017188506644209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.985682492251479</v>
+        <v>0.9869674575616252</v>
       </c>
       <c r="D16">
-        <v>1.002454130953799</v>
+        <v>1.004096519094752</v>
       </c>
       <c r="E16">
-        <v>0.99537385353497</v>
+        <v>0.9964808754610274</v>
       </c>
       <c r="F16">
-        <v>1.011189635455036</v>
+        <v>1.011737080751494</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04401366064304</v>
+        <v>1.044525740290407</v>
       </c>
       <c r="J16">
-        <v>1.014397264953939</v>
+        <v>1.015629387890708</v>
       </c>
       <c r="K16">
-        <v>1.016742668318453</v>
+        <v>1.018355739914055</v>
       </c>
       <c r="L16">
-        <v>1.009790214870484</v>
+        <v>1.010877095285637</v>
       </c>
       <c r="M16">
-        <v>1.025323661326224</v>
+        <v>1.025861538608493</v>
       </c>
       <c r="N16">
-        <v>1.008917084415088</v>
+        <v>1.011695768309754</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.029889431231248</v>
+        <v>1.030314572313604</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.022987173635014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.024144319808171</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017390072050305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9870986964425761</v>
+        <v>0.9883036444779941</v>
       </c>
       <c r="D17">
-        <v>1.003447249917923</v>
+        <v>1.004983947634575</v>
       </c>
       <c r="E17">
-        <v>0.9964459987661403</v>
+        <v>0.997484889043323</v>
       </c>
       <c r="F17">
-        <v>1.011844930372694</v>
+        <v>1.012359088710765</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044322210770581</v>
+        <v>1.044802935747374</v>
       </c>
       <c r="J17">
-        <v>1.015061842479962</v>
+        <v>1.016218837073092</v>
       </c>
       <c r="K17">
-        <v>1.017395105131452</v>
+        <v>1.018905150894486</v>
       </c>
       <c r="L17">
-        <v>1.010516630780362</v>
+        <v>1.011537161446851</v>
       </c>
       <c r="M17">
-        <v>1.025648414298708</v>
+        <v>1.026153833783812</v>
       </c>
       <c r="N17">
-        <v>1.009126840185546</v>
+        <v>1.011749842656024</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.030015991184343</v>
+        <v>1.03041551773843</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.023451118040491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.024535661739435</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017495316874493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9877383481689791</v>
+        <v>0.9889178849861114</v>
       </c>
       <c r="D18">
-        <v>1.003867593535976</v>
+        <v>1.005368094633586</v>
       </c>
       <c r="E18">
-        <v>0.9969081639230357</v>
+        <v>0.9979263787715851</v>
       </c>
       <c r="F18">
-        <v>1.011496525561956</v>
+        <v>1.012001516437181</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044426870815488</v>
+        <v>1.044897751737332</v>
       </c>
       <c r="J18">
-        <v>1.015272725515788</v>
+        <v>1.016406199301349</v>
       </c>
       <c r="K18">
-        <v>1.017619899565044</v>
+        <v>1.01909480667267</v>
       </c>
       <c r="L18">
-        <v>1.010780480761202</v>
+        <v>1.011781001874326</v>
       </c>
       <c r="M18">
-        <v>1.025119721477399</v>
+        <v>1.025616254546326</v>
       </c>
       <c r="N18">
-        <v>1.009177671800576</v>
+        <v>1.011745125556263</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.029357975082229</v>
+        <v>1.029750560263623</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.023598221203938</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.024656788882479</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017515788376423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9876578083779727</v>
+        <v>0.9888569305951204</v>
       </c>
       <c r="D19">
-        <v>1.003767677597253</v>
+        <v>1.005292449991068</v>
       </c>
       <c r="E19">
-        <v>0.996802767328606</v>
+        <v>0.997839360629681</v>
       </c>
       <c r="F19">
-        <v>1.010136930999205</v>
+        <v>1.010652988328585</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.0443431438469</v>
+        <v>1.044821930242354</v>
       </c>
       <c r="J19">
-        <v>1.015057929439819</v>
+        <v>1.016210489120312</v>
       </c>
       <c r="K19">
-        <v>1.017457495282083</v>
+        <v>1.018956393311153</v>
       </c>
       <c r="L19">
-        <v>1.010612077208836</v>
+        <v>1.011630749729765</v>
       </c>
       <c r="M19">
-        <v>1.023719334747781</v>
+        <v>1.024226765455585</v>
       </c>
       <c r="N19">
-        <v>1.009081852832818</v>
+        <v>1.011665039430936</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.027921173548562</v>
+        <v>1.028322509130577</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.023489898880934</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.02456605209329</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017460831434604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9855388281773083</v>
+        <v>0.986883617902905</v>
       </c>
       <c r="D20">
-        <v>1.002172432220718</v>
+        <v>1.003891246459064</v>
       </c>
       <c r="E20">
-        <v>0.9950904102464329</v>
+        <v>0.9962551203403722</v>
       </c>
       <c r="F20">
-        <v>1.006065819189055</v>
+        <v>1.006650459518033</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043727645947641</v>
+        <v>1.04426401686511</v>
       </c>
       <c r="J20">
-        <v>1.013638814844046</v>
+        <v>1.014929688225006</v>
       </c>
       <c r="K20">
-        <v>1.016177189286133</v>
+        <v>1.01786601635308</v>
       </c>
       <c r="L20">
-        <v>1.009220141744618</v>
+        <v>1.01036414012447</v>
       </c>
       <c r="M20">
-        <v>1.020002840509387</v>
+        <v>1.020577368007026</v>
       </c>
       <c r="N20">
-        <v>1.00857061039887</v>
+        <v>1.011360916752475</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.024444710118809</v>
+        <v>1.024899397063119</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.022588637099746</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.02379947673302</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017185297962826</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9808838055441863</v>
+        <v>0.9825565546519225</v>
       </c>
       <c r="D21">
-        <v>0.9988528895967629</v>
+        <v>1.000979385805718</v>
       </c>
       <c r="E21">
-        <v>0.9915075592878367</v>
+        <v>0.9929569878299985</v>
       </c>
       <c r="F21">
-        <v>1.002144119698315</v>
+        <v>1.002873114718449</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042608923620423</v>
+        <v>1.043273891869169</v>
       </c>
       <c r="J21">
-        <v>1.01120309468975</v>
+        <v>1.012802126624086</v>
       </c>
       <c r="K21">
-        <v>1.013856026974383</v>
+        <v>1.015942227148822</v>
       </c>
       <c r="L21">
-        <v>1.006651629760957</v>
+        <v>1.008073032140063</v>
       </c>
       <c r="M21">
-        <v>1.017084984615434</v>
+        <v>1.017800258740017</v>
       </c>
       <c r="N21">
-        <v>1.007755999598512</v>
+        <v>1.011213347115538</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.022093768747367</v>
+        <v>1.022659874977093</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.020950724521126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.022442869558155</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.016776700140355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9779220762920892</v>
+        <v>0.979802439899582</v>
       </c>
       <c r="D22">
-        <v>0.9967449722367087</v>
+        <v>0.9991291779620235</v>
       </c>
       <c r="E22">
-        <v>0.9892387423854524</v>
+        <v>0.9908680939312502</v>
       </c>
       <c r="F22">
-        <v>0.9997894727362453</v>
+        <v>1.000609798467159</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041884559218051</v>
+        <v>1.042630465932382</v>
       </c>
       <c r="J22">
-        <v>1.009662834517659</v>
+        <v>1.011455452836838</v>
       </c>
       <c r="K22">
-        <v>1.012381188830174</v>
+        <v>1.014717905768428</v>
       </c>
       <c r="L22">
-        <v>1.005026439286313</v>
+        <v>1.006622652564115</v>
       </c>
       <c r="M22">
-        <v>1.015365101366811</v>
+        <v>1.016169184802358</v>
       </c>
       <c r="N22">
-        <v>1.007241898274767</v>
+        <v>1.011114195981033</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.020732559132155</v>
+        <v>1.021368955059176</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.019894151653302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.021562145964405</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016515183437952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9794877770394875</v>
+        <v>0.9812485283383334</v>
       </c>
       <c r="D23">
-        <v>0.997850127857035</v>
+        <v>1.000090368210491</v>
       </c>
       <c r="E23">
-        <v>0.9904360700928797</v>
+        <v>0.9919615531529974</v>
       </c>
       <c r="F23">
-        <v>1.001037031219867</v>
+        <v>1.001804751504764</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042267477818151</v>
+        <v>1.04296672995764</v>
       </c>
       <c r="J23">
-        <v>1.010472794929778</v>
+        <v>1.012153817528683</v>
       </c>
       <c r="K23">
-        <v>1.013150492684861</v>
+        <v>1.01534726510879</v>
       </c>
       <c r="L23">
-        <v>1.005882134674875</v>
+        <v>1.00737740543643</v>
       </c>
       <c r="M23">
-        <v>1.016275636390759</v>
+        <v>1.017028555784956</v>
       </c>
       <c r="N23">
-        <v>1.007511340754802</v>
+        <v>1.011122546740633</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.021453206665319</v>
+        <v>1.022049107930142</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.020428280642732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.021996384164484</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01664736118839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.985535678644841</v>
+        <v>0.9868830050878526</v>
       </c>
       <c r="D24">
-        <v>1.002149437013078</v>
+        <v>1.003871393287856</v>
       </c>
       <c r="E24">
-        <v>0.995079158383099</v>
+        <v>0.9962463113922556</v>
       </c>
       <c r="F24">
-        <v>1.005871389868911</v>
+        <v>1.006457590076631</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043713895069743</v>
+        <v>1.044251302562935</v>
       </c>
       <c r="J24">
-        <v>1.013602119030515</v>
+        <v>1.014895503296056</v>
       </c>
       <c r="K24">
-        <v>1.016138910981417</v>
+        <v>1.017830862311152</v>
       </c>
       <c r="L24">
-        <v>1.009193244134708</v>
+        <v>1.010339668243805</v>
       </c>
       <c r="M24">
-        <v>1.019796175942725</v>
+        <v>1.020372244344381</v>
       </c>
       <c r="N24">
-        <v>1.008553986700575</v>
+        <v>1.011344807392719</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.024239548181796</v>
+        <v>1.02469547814262</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.0225336692125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.023744060114151</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017171720132588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9922935726030884</v>
+        <v>0.9933200571126958</v>
       </c>
       <c r="D25">
-        <v>1.006985464258751</v>
+        <v>1.00823839328902</v>
       </c>
       <c r="E25">
-        <v>1.000297981629517</v>
+        <v>1.0011891321524</v>
       </c>
       <c r="F25">
-        <v>1.01131590597181</v>
+        <v>1.011761426705598</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04525536254437</v>
+        <v>1.045666795678872</v>
       </c>
       <c r="J25">
-        <v>1.017083101532288</v>
+        <v>1.018074338365586</v>
       </c>
       <c r="K25">
-        <v>1.019476299166157</v>
+        <v>1.020710150940034</v>
       </c>
       <c r="L25">
-        <v>1.012891673577492</v>
+        <v>1.013769016380188</v>
       </c>
       <c r="M25">
-        <v>1.023741060561527</v>
+        <v>1.024179864647427</v>
       </c>
       <c r="N25">
-        <v>1.009714020639626</v>
+        <v>1.012137744309405</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.027361725285114</v>
+        <v>1.027709015695365</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.024890539882029</v>
+        <v>1.025776698953081</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017781044468743</v>
       </c>
     </row>
   </sheetData>
